--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,15 +73,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>余额零钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经手人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍梦婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二天早上确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春辉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收走现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个月房租</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤肉料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂拿货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>高麦进货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>余额零钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经手人</t>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,19 +153,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第二天早上确认人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李春辉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收走现金</t>
+    <t>食堂拿货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小商品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -109,18 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个月房租</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卤肉料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>食堂拿货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,7 +181,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奶茶原料</t>
+    <t>俞杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -137,7 +189,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>饮料机</t>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍梦婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦工作服X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仪涛临时住宿费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次性手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中午吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇果酱红茶等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金:三通堵头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五金:皮管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纯净水票</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68+22+31+6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉膨松剂X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千张X10 115.4元,鸡柳X10 295,手抓饼X1袋,150元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,111 +249,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俞杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收走</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍梦婕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食堂拿货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小商品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食堂拿货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>走卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俞杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘锐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鲍梦婕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高麦工作服X2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王仪涛临时住宿费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一次性手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135+305+18+151+39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小商品,纸袋18,杯子151,撒料罐39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盾皇果酱红茶等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五金:三通堵头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五金:皮管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纯净水票</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南环桥买菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68+22+31+6.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面粉膨松剂X5</t>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卤汤料包1袋 50元,制卤香料(小)X1袋 43.00,煲汤袋X2 10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小商品,纸袋18,杯子154.5,撒料罐39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135+309+18+154.5+39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高麦进货:鸡柳X5袋,番茄酱 172.5 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,10 +758,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -751,7 +771,7 @@
     <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="33.75" customWidth="1"/>
+    <col min="6" max="6" width="50.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -765,13 +785,16 @@
         <v>8</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
@@ -813,10 +836,10 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="B4" s="1">
-        <v>1600</v>
+        <v>1601.1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>450</v>
@@ -825,18 +848,18 @@
         <v>1650</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <v>3700</v>
+        <v>3701.1</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>160</v>
@@ -850,7 +873,7 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1">
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1">
         <v>120</v>
@@ -871,10 +894,10 @@
         <v>140.1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H8" s="1">
         <v>140.1</v>
@@ -882,31 +905,36 @@
     </row>
     <row r="9" spans="1:8">
       <c r="B9" s="1">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -914,10 +942,10 @@
         <v>10.5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" s="1">
         <v>10.5</v>
@@ -941,10 +969,10 @@
         <v>550</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1">
         <v>550</v>
@@ -952,27 +980,30 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="1">
-        <v>500</v>
+        <v>560.4</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="H15" s="1">
-        <v>500</v>
+        <v>560.4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -980,16 +1011,16 @@
         <v>41713</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17">
-        <v>648</v>
+        <v>655.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -998,10 +1029,10 @@
         <v>155</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H18">
         <v>155</v>
@@ -1015,14 +1046,14 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1030,12 +1061,12 @@
         <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H21">
         <v>35</v>
@@ -1044,14 +1075,14 @@
     <row r="22" spans="1:8">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1">
         <v>9</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H22">
         <v>9</v>
@@ -1060,14 +1091,14 @@
     <row r="23" spans="1:8">
       <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E23" s="1">
         <v>5</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>5</v>
@@ -1076,14 +1107,14 @@
     <row r="24" spans="1:8">
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1">
         <v>135</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <v>135</v>
@@ -1092,14 +1123,14 @@
     <row r="25" spans="1:8">
       <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <v>127.5</v>
@@ -1110,10 +1141,10 @@
         <v>180</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26">
         <v>180</v>
@@ -1129,15 +1160,29 @@
         <v>190</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28">
         <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2">
+        <v>41716</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29">
+        <v>172.5</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1170,22 +1215,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1202,10 +1247,10 @@
         <v>415.5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1222,10 +1267,10 @@
         <v>430</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1239,16 +1284,16 @@
         <v>500</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1">
         <v>230</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1259,13 +1304,13 @@
         <v>100</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1">
         <v>294</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1276,13 +1321,27 @@
         <v>100</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1">
         <v>304</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>41715</v>
+      </c>
+      <c r="C7" s="1">
+        <v>255</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,13 @@
   </si>
   <si>
     <t xml:space="preserve">高麦进货:鸡柳X5袋,番茄酱 172.5 </t>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千张5袋(10斤),卤肉5袋(10斤),卤汤料5袋,卤汤香料2袋,鸡柳5袋(10斤)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,20 +765,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="50.875" customWidth="1"/>
+    <col min="6" max="6" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -1183,6 +1190,26 @@
       </c>
       <c r="H29">
         <v>172.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2">
+        <v>41717</v>
+      </c>
+      <c r="B31" s="1">
+        <v>803</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>803</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1344,6 +1371,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>41716</v>
+      </c>
+      <c r="C8" s="1">
+        <v>200</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,18 @@
   </si>
   <si>
     <t>千张5袋(10斤),卤肉5袋(10斤),卤汤料5袋,卤汤香料2袋,鸡柳5袋(10斤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰/潘锐 各200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥菜场买菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕20斤 15元,千张50斤 180元,香菜 10元,黄瓜41元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -765,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1212,6 +1224,23 @@
         <v>803</v>
       </c>
     </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="1">
+        <v>246</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1385,6 +1414,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>41717</v>
+      </c>
+      <c r="C9" s="1">
+        <v>400</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,9 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">高麦进货:鸡柳X5袋,番茄酱 172.5 </t>
-  </si>
-  <si>
     <t>高麦进货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,6 +286,34 @@
   </si>
   <si>
     <t>藕20斤 15元,千张50斤 180元,香菜 10元,黄瓜41元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">高麦进货:鸡柳X5袋,番茄酱 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力奶茶2包，香芋奶茶2包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食堂拿货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋1筐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>走卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,74 +379,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -433,7 +390,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -777,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1194,8 +1151,11 @@
       <c r="A29" s="2">
         <v>41716</v>
       </c>
+      <c r="B29">
+        <v>172.5</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>20</v>
@@ -1212,10 +1172,10 @@
         <v>803</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
         <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
@@ -1229,16 +1189,44 @@
         <v>246</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" t="s">
         <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H32">
         <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
+        <v>114.1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H33">
+        <v>114.1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="C34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1252,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1368,6 +1356,9 @@
       <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2">
@@ -1385,6 +1376,9 @@
       <c r="F6" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2">
@@ -1396,8 +1390,14 @@
       <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E7" s="1">
+        <v>288.5</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1410,8 +1410,14 @@
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E8" s="1">
+        <v>245</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1422,10 +1428,16 @@
         <v>400</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="E9" s="1">
+        <v>215.5</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,14 @@
   </si>
   <si>
     <t>走卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小票机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +742,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1201,7 +1209,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="1:8">
       <c r="B33" s="1">
         <v>114.1</v>
       </c>
@@ -1218,7 +1226,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="1:8">
       <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
@@ -1227,6 +1235,23 @@
       </c>
       <c r="G34" s="1" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="2">
+        <v>41718</v>
+      </c>
+      <c r="E35">
+        <v>411</v>
+      </c>
+      <c r="F35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H35">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,22 @@
   </si>
   <si>
     <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡腌料30元 X 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶精X1,红茶X3,滤网X10,珍珠X1,果糖X1,布丁粉X1,椰果X1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -387,6 +403,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -398,7 +482,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -742,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1254,6 +1338,43 @@
         <v>411</v>
       </c>
     </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B36" s="1">
+        <v>60</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="1">
+        <v>183</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1263,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1465,6 +1586,17 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>41718</v>
+      </c>
+      <c r="C10" s="1">
+        <v>400</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
     <sheet name="支出" sheetId="2" r:id="rId2"/>
     <sheet name="收入" sheetId="3" r:id="rId3"/>
+    <sheet name="考勤" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +339,30 @@
   </si>
   <si>
     <t>奶精X1,红茶X3,滤网X10,珍珠X1,果糖X1,布丁粉X1,椰果X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仪涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏海丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春晖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病假一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.21病假一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1602,4 +1627,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,54 @@
   </si>
   <si>
     <t>3.21病假一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐200/俞杰100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;352.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货+整理用品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉一箱，培根X1，里脊X2，整理箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500多？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货+中翔小商品市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大葱10斤，玉米淀粉一代，黄酒一箱，保鲜袋2包，架子X1，电热水壶X1，篮子X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚5斤，鸡蛋1筐，油一箱（4桶）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,74 +476,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -507,7 +487,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -851,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1268,7 +1248,7 @@
       <c r="A29" s="2">
         <v>41716</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>172.5</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1398,6 +1378,66 @@
       </c>
       <c r="H37">
         <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="2">
+        <v>41720</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="2">
+        <v>41721</v>
+      </c>
+      <c r="B39" s="1">
+        <v>379</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2">
+        <v>41722</v>
+      </c>
+      <c r="B40" s="1">
+        <v>394</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -1409,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1472,6 +1512,9 @@
       <c r="A3" s="2">
         <v>41711</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="C3" s="1">
         <v>400</v>
       </c>
@@ -1515,6 +1558,9 @@
       <c r="A5" s="2">
         <v>41713</v>
       </c>
+      <c r="B5" s="1">
+        <v>510</v>
+      </c>
       <c r="C5" s="1">
         <v>100</v>
       </c>
@@ -1535,6 +1581,9 @@
       <c r="A6" s="2">
         <v>41714</v>
       </c>
+      <c r="B6" s="1">
+        <v>280</v>
+      </c>
       <c r="C6" s="1">
         <v>100</v>
       </c>
@@ -1555,6 +1604,9 @@
       <c r="A7" s="2">
         <v>41715</v>
       </c>
+      <c r="B7" s="1">
+        <v>508.5</v>
+      </c>
       <c r="C7" s="1">
         <v>255</v>
       </c>
@@ -1575,6 +1627,9 @@
       <c r="A8" s="2">
         <v>41716</v>
       </c>
+      <c r="B8" s="1">
+        <v>474.5</v>
+      </c>
       <c r="C8" s="1">
         <v>200</v>
       </c>
@@ -1595,6 +1650,9 @@
       <c r="A9" s="2">
         <v>41717</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C9" s="1">
         <v>400</v>
       </c>
@@ -1615,11 +1673,94 @@
       <c r="A10" s="2">
         <v>41718</v>
       </c>
+      <c r="B10" s="1">
+        <v>552.5</v>
+      </c>
       <c r="C10" s="1">
         <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="E10" s="1">
+        <v>218</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>41719</v>
+      </c>
+      <c r="B11" s="1">
+        <v>429</v>
+      </c>
+      <c r="C11" s="1">
+        <v>300</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1">
+        <v>240</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2">
+        <v>41720</v>
+      </c>
+      <c r="B12" s="1">
+        <v>337</v>
+      </c>
+      <c r="C12" s="1">
+        <v>300</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="1">
+        <v>239</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2">
+        <v>41721</v>
+      </c>
+      <c r="C13" s="1">
+        <v>265</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1">
+        <v>257</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2">
+        <v>41722</v>
+      </c>
+      <c r="C14" s="1">
+        <v>200</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="1">
+        <v>236</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,18 @@
   </si>
   <si>
     <t>牛肚5斤，鸡蛋1筐，油一箱（4桶）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.23加班一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24加班2.5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.24打架,劝退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,6 +488,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,7 +567,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -833,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1451,15 +1531,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="11.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
@@ -1772,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1808,6 +1889,20 @@
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +423,22 @@
   </si>
   <si>
     <t>3.24打架,劝退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千张20斤，生猪肉12斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典咖啡X2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,74 +504,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -567,7 +515,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -911,10 +859,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1518,6 +1466,43 @@
       </c>
       <c r="H40">
         <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2">
+        <v>41723</v>
+      </c>
+      <c r="B41" s="1">
+        <v>193</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" t="s">
+        <v>102</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="1">
+        <v>84.5</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>84.5</v>
       </c>
     </row>
   </sheetData>
@@ -1855,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,41 @@
   </si>
   <si>
     <t>经典咖啡X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡腌料30元 X 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职,工作时间10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤元菊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃海妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26入职第一天</t>
+  </si>
+  <si>
+    <t>3.26入职第一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.26 110处理打架事件半天,离职,工作时间16天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍玉莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.27入职第一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,6 +539,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -515,7 +618,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -859,10 +962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1505,6 +1608,26 @@
         <v>84.5</v>
       </c>
     </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B43" s="1">
+        <v>150</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1829,6 +1952,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2">
+        <v>41722</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,22 +1972,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -1866,8 +2003,17 @@
       <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -1877,8 +2023,20 @@
       <c r="D2" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>100</v>
       </c>
@@ -1887,6 +2045,11 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="D4" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +474,13 @@
   </si>
   <si>
     <t>3.27入职第一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉增筋王</t>
+  </si>
+  <si>
+    <t>面粉增筋王试用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -962,10 +969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1626,6 +1633,23 @@
       </c>
       <c r="H43">
         <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="B44" s="1">
+        <v>14.65</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44">
+        <v>14.65</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,22 @@
   </si>
   <si>
     <t>面粉增筋王试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉一箱160，吸管、纸袋、洗洁精32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,74 +562,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -625,7 +573,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -969,10 +917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1652,6 +1600,23 @@
         <v>14.65</v>
       </c>
     </row>
+    <row r="45" spans="1:8">
+      <c r="B45" s="1">
+        <v>192</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H45">
+        <v>192</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1661,10 +1626,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1978,13 +1943,32 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2">
-        <v>41722</v>
+        <v>41723</v>
       </c>
       <c r="C15" s="1">
         <v>400</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2">
+        <v>41724</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>41725</v>
+      </c>
+      <c r="C17" s="1">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,21 @@
   </si>
   <si>
     <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰300/潘锐100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仪涛工资结算</t>
+  </si>
+  <si>
+    <t>王仪涛工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.27日起复职</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,12 +571,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -573,7 +659,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -917,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1565,55 +1651,75 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
-        <v>41725</v>
+        <v>41724</v>
       </c>
       <c r="B43" s="1">
-        <v>150</v>
+        <v>1250</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="4">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="2">
+        <v>41725</v>
+      </c>
+      <c r="B44" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="B44" s="1">
-        <v>14.65</v>
-      </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H44">
-        <v>14.65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45" s="1">
+        <v>14.65</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="B46" s="1">
         <v>192</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H45">
+      <c r="H46">
         <v>192</v>
       </c>
     </row>
@@ -1628,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1963,12 +2069,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>41725</v>
       </c>
       <c r="C17" s="1">
         <v>400</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2092,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2056,6 +2165,9 @@
       </c>
     </row>
     <row r="4" spans="1:7">
+      <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>111</v>
       </c>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="140">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,6 +512,70 @@
   </si>
   <si>
     <t>3.27日起复职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜1袋，藕10斤，地刮+夹子，生菜6斤，千张20斤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招牌灯箱X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;640</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;752.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 星期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,12 +608,129 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -558,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -569,10 +750,67 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,74 +818,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -659,7 +829,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -972,7 +1142,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -989,7 +1159,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1003,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1665,7 +1835,7 @@
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="3">
         <v>1250</v>
       </c>
     </row>
@@ -1721,6 +1891,43 @@
       </c>
       <c r="H46">
         <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="2">
+        <v>41727</v>
+      </c>
+      <c r="B47" s="1">
+        <v>159</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="2">
+        <v>41728</v>
+      </c>
+      <c r="E48" s="1">
+        <v>425</v>
+      </c>
+      <c r="F48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -1732,353 +1939,579 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="18" customWidth="1"/>
+    <col min="2" max="2" width="11" style="10" customWidth="1"/>
+    <col min="3" max="3" width="9" style="18"/>
+    <col min="4" max="4" width="11.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19" style="21" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" spans="1:9" s="23" customFormat="1">
+      <c r="A2" s="5">
         <v>41710</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="6">
         <v>700</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7">
+        <f>SUM(C2:D2)</f>
+        <v>700</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="20">
         <v>415.5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
+    <row r="3" spans="1:9" s="23" customFormat="1">
+      <c r="A3" s="8">
         <v>41711</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="9">
         <v>400</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="21">
         <v>430</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="4" spans="1:9" s="23" customFormat="1">
+      <c r="A4" s="8">
         <v>41712</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="18">
         <v>608.5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="9">
         <v>500</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="10">
+        <f>SUM(C4:D4)</f>
+        <v>1108.5</v>
+      </c>
+      <c r="F4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="21">
         <v>230</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="5" spans="1:9" s="23" customFormat="1">
+      <c r="A5" s="8">
         <v>41713</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="18">
         <v>510</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="9">
         <v>100</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="10">
+        <f>SUM(C5:D5)</f>
+        <v>610</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="21">
         <v>294</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="6" spans="1:9" s="23" customFormat="1">
+      <c r="A6" s="11">
         <v>41714</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="19">
         <v>280</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="12">
         <v>100</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="13">
+        <f>SUM(C6:D6)</f>
+        <v>380</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1">
+      <c r="G6" s="22">
         <v>304</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+    <row r="7" spans="1:9" s="23" customFormat="1">
+      <c r="A7" s="5">
         <v>41715</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="14">
         <v>508.5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="6">
         <v>255</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="7">
+        <f>SUM(C7:D7)</f>
+        <v>763.5</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="20">
         <v>288.5</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="I7" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8" spans="1:9">
+      <c r="A8" s="8">
         <v>41716</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="18">
         <v>474.5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="9">
         <v>200</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="10">
+        <f>SUM(C8:D8)</f>
+        <v>674.5</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
+      <c r="G8" s="21">
         <v>245</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+    <row r="9" spans="1:9">
+      <c r="A9" s="8">
         <v>41717</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="9">
         <v>400</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="21">
         <v>215.5</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+    <row r="10" spans="1:9">
+      <c r="A10" s="8">
         <v>41718</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="18">
         <v>552.5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="9">
         <v>400</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="10">
+        <f>SUM(C10:D10)</f>
+        <v>952.5</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="21">
+        <v>218</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8">
+        <v>41719</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="18">
+        <v>429</v>
+      </c>
+      <c r="D11" s="9">
+        <v>300</v>
+      </c>
+      <c r="E11" s="10">
+        <v>729</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="21">
+        <v>240</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8">
+        <v>41720</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="18">
+        <v>337</v>
+      </c>
+      <c r="D12" s="9">
+        <v>300</v>
+      </c>
+      <c r="E12" s="10">
+        <f>SUM(C12:D12)</f>
+        <v>637</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="21">
+        <v>239</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="11">
+        <v>41721</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="19">
+        <v>337</v>
+      </c>
+      <c r="D13" s="12">
+        <v>265</v>
+      </c>
+      <c r="E13" s="13">
+        <v>602</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="22">
+        <v>257</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5">
+        <v>41722</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="14">
+        <v>442.5</v>
+      </c>
+      <c r="D14" s="6">
+        <v>200</v>
+      </c>
+      <c r="E14" s="7">
+        <v>642.4</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="20">
+        <v>236</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8">
+        <v>41723</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="18">
+        <v>709</v>
+      </c>
+      <c r="D15" s="9">
+        <v>400</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1109</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="1">
-        <v>218</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G15" s="21">
+        <v>229.5</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8">
+        <v>41724</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="18">
+        <v>360.5</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="10">
+        <v>360.5</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="21">
+        <v>291.5</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>41719</v>
-      </c>
-      <c r="B11" s="1">
-        <v>429</v>
-      </c>
-      <c r="C11" s="1">
-        <v>300</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="1">
-        <v>240</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8">
+        <v>41725</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="18">
+        <v>459</v>
+      </c>
+      <c r="D17" s="9">
+        <v>400</v>
+      </c>
+      <c r="E17" s="10">
+        <v>859</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="21">
+        <v>274.5</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>41720</v>
-      </c>
-      <c r="B12" s="1">
-        <v>337</v>
-      </c>
-      <c r="C12" s="1">
-        <v>300</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="1">
-        <v>239</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8">
+        <v>41726</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="18">
+        <v>498</v>
+      </c>
+      <c r="D18" s="9">
+        <v>200</v>
+      </c>
+      <c r="E18" s="10">
+        <v>698</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="21">
+        <v>277</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>41721</v>
-      </c>
-      <c r="C13" s="1">
-        <v>265</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="1">
-        <v>257</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>41722</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8">
+        <v>41727</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="18">
+        <v>334.5</v>
+      </c>
+      <c r="D19" s="9">
         <v>200</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="1">
-        <v>236</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E19" s="10">
+        <v>534.5</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>41723</v>
-      </c>
-      <c r="C15" s="1">
-        <v>400</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>41724</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="11">
+        <v>41728</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="12">
+        <v>200</v>
+      </c>
+      <c r="E20" s="13"/>
+      <c r="F20" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>41725</v>
-      </c>
-      <c r="C17" s="1">
-        <v>400</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>120</v>
-      </c>
+      <c r="I20" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -576,6 +576,37 @@
   </si>
   <si>
     <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.31,4.1请假2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜2.5,里脊21,培根35 X 2,牛肉38,卤牛肉27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服手机299,话费100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉63(9元一斤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西域番茄酱25X1,辣椒油150X1,蓬松粉38X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春晖工资结算</t>
+  </si>
+  <si>
+    <t>李春晖工资结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,9 +783,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,12 +840,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -829,7 +928,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1142,7 +1241,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1159,7 +1258,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1173,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1672,7 +1771,7 @@
       <c r="A35" s="2">
         <v>41718</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <v>411</v>
       </c>
       <c r="F35" t="s">
@@ -1895,39 +1994,133 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
+        <v>41726</v>
+      </c>
+      <c r="B47" s="1">
+        <v>158.5</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47">
+        <v>158.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
         <v>41727</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B49" s="1">
         <v>159</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F49" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H47">
+      <c r="H49">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="2">
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
         <v>41728</v>
       </c>
-      <c r="E48" s="1">
+      <c r="B50" s="1"/>
+      <c r="E50" s="1">
         <v>425</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F50" t="s">
         <v>125</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H48">
+      <c r="H50">
         <v>425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="E51" s="1">
+        <v>399</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52">
+        <v>63</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F52" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="2">
+        <v>41729</v>
+      </c>
+      <c r="B53">
+        <v>251</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s">
+        <v>145</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="C54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54">
+        <v>1600</v>
+      </c>
+      <c r="F54" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -1941,43 +2134,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="18" customWidth="1"/>
-    <col min="2" max="2" width="11" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9" style="18"/>
-    <col min="4" max="4" width="11.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="10" customWidth="1"/>
-    <col min="6" max="6" width="19" style="21" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="21" customWidth="1"/>
+    <col min="1" max="1" width="11" style="17" customWidth="1"/>
+    <col min="2" max="2" width="11" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9" style="17"/>
+    <col min="4" max="4" width="11.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="9" customWidth="1"/>
+    <col min="6" max="6" width="19" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="20" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -1987,531 +2180,531 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="23" customFormat="1">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" s="22" customFormat="1">
+      <c r="A2" s="4">
         <v>41710</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="6">
+      <c r="C2" s="13"/>
+      <c r="D2" s="5">
         <v>700</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <f>SUM(C2:D2)</f>
         <v>700</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>415.5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="23" customFormat="1">
-      <c r="A3" s="8">
+    <row r="3" spans="1:9" s="22" customFormat="1">
+      <c r="A3" s="7">
         <v>41711</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>400</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="20">
         <v>430</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="23" customFormat="1">
-      <c r="A4" s="8">
+    <row r="4" spans="1:9" s="22" customFormat="1">
+      <c r="A4" s="7">
         <v>41712</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>608.5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>500</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <f>SUM(C4:D4)</f>
         <v>1108.5</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="20">
         <v>230</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="23" customFormat="1">
-      <c r="A5" s="8">
+    <row r="5" spans="1:9" s="22" customFormat="1">
+      <c r="A5" s="7">
         <v>41713</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>510</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>100</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <f>SUM(C5:D5)</f>
         <v>610</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="20">
         <v>294</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="23" customFormat="1">
-      <c r="A6" s="11">
+    <row r="6" spans="1:9" s="22" customFormat="1">
+      <c r="A6" s="10">
         <v>41714</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>280</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>100</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f>SUM(C6:D6)</f>
         <v>380</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>304</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="23" customFormat="1">
-      <c r="A7" s="5">
+    <row r="7" spans="1:9" s="22" customFormat="1">
+      <c r="A7" s="4">
         <v>41715</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>508.5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>255</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <f>SUM(C7:D7)</f>
         <v>763.5</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="19">
         <v>288.5</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>41716</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>474.5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>200</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f>SUM(C8:D8)</f>
         <v>674.5</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="20">
         <v>245</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>41717</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>400</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="20">
         <v>215.5</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>41718</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>552.5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>400</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f>SUM(C10:D10)</f>
         <v>952.5</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="20">
         <v>218</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>41719</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>429</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>300</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>729</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="20">
         <v>240</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>41720</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>337</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>300</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <f>SUM(C12:D12)</f>
         <v>637</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="20">
         <v>239</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>41721</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <v>337</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>265</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>602</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <v>257</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>41722</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>442.5</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="5">
         <v>200</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>642.4</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="19">
         <v>236</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="7"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>41723</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>709</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>400</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>1109</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="20">
         <v>229.5</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>41724</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>360.5</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>360.5</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="20">
         <v>291.5</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>41725</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>459</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>400</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>859</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="20">
         <v>274.5</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>41726</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>498</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>200</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>698</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>277</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>41727</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>334.5</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>200</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>534.5</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>41728</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="12">
+      <c r="C20" s="18"/>
+      <c r="D20" s="11">
         <v>200</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="22" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="22"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="21"/>
+      <c r="H20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2525,7 +2718,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2596,6 +2789,9 @@
       <c r="D3" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="G3" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="152">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -607,6 +607,22 @@
   </si>
   <si>
     <t>李春晖工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶精360 X 1 , 珍珠 X 2 ,果糖 X 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰/潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>190/200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1272,16 +1288,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.875" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
@@ -1466,12 +1482,10 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="G13" s="1"/>
     </row>
@@ -1587,7 +1601,6 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1603,7 +1616,6 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="1"/>
       <c r="C23" s="1" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1631,6 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1635,7 +1646,6 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="1"/>
       <c r="C25" s="1" t="s">
         <v>52</v>
       </c>
@@ -2013,7 +2023,6 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="G48" s="1"/>
     </row>
@@ -2041,7 +2050,6 @@
       <c r="A50" s="2">
         <v>41728</v>
       </c>
-      <c r="B50" s="1"/>
       <c r="E50" s="1">
         <v>425</v>
       </c>
@@ -2070,7 +2078,7 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="B52">
+      <c r="B52" s="1">
         <v>63</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -2090,7 +2098,7 @@
       <c r="A53" s="2">
         <v>41729</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2121,6 +2129,23 @@
       </c>
       <c r="H54">
         <v>1600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="B55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" t="s">
+        <v>149</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2160,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2718,7 +2743,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -623,6 +623,10 @@
   </si>
   <si>
     <t>190/200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM总金额:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,12 +651,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -786,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -796,9 +806,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,6 +865,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1257,7 +1282,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1274,7 +1299,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1288,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1302,6 +1327,7 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
@@ -1547,7 +1573,7 @@
       <c r="G17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>655.5</v>
       </c>
     </row>
@@ -1562,7 +1588,7 @@
       <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>155</v>
       </c>
     </row>
@@ -1596,7 +1622,7 @@
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>35</v>
       </c>
     </row>
@@ -1611,7 +1637,7 @@
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>9</v>
       </c>
     </row>
@@ -1626,7 +1652,7 @@
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1641,7 +1667,7 @@
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>135</v>
       </c>
     </row>
@@ -1656,7 +1682,7 @@
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>127.5</v>
       </c>
     </row>
@@ -1670,7 +1696,7 @@
       <c r="G26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>180</v>
       </c>
     </row>
@@ -1691,7 +1717,7 @@
       <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>190</v>
       </c>
     </row>
@@ -1708,7 +1734,7 @@
       <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>172.5</v>
       </c>
     </row>
@@ -1728,7 +1754,7 @@
       <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="1">
         <v>803</v>
       </c>
     </row>
@@ -1745,7 +1771,7 @@
       <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>246</v>
       </c>
     </row>
@@ -1762,7 +1788,7 @@
       <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>114.1</v>
       </c>
     </row>
@@ -1790,7 +1816,7 @@
       <c r="G35" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="1">
         <v>411</v>
       </c>
     </row>
@@ -1810,7 +1836,7 @@
       <c r="G36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>60</v>
       </c>
     </row>
@@ -1827,7 +1853,7 @@
       <c r="G37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>183</v>
       </c>
     </row>
@@ -1867,7 +1893,7 @@
       <c r="G39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="1">
         <v>379</v>
       </c>
     </row>
@@ -1887,7 +1913,7 @@
       <c r="G40" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="1">
         <v>394</v>
       </c>
     </row>
@@ -1907,7 +1933,7 @@
       <c r="G41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="1">
         <v>193</v>
       </c>
     </row>
@@ -1924,7 +1950,7 @@
       <c r="G42" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="1">
         <v>84.5</v>
       </c>
     </row>
@@ -1944,7 +1970,7 @@
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <v>1250</v>
       </c>
     </row>
@@ -1964,7 +1990,7 @@
       <c r="G44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="1">
         <v>150</v>
       </c>
     </row>
@@ -1981,7 +2007,7 @@
       <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="1">
         <v>14.65</v>
       </c>
     </row>
@@ -1998,7 +2024,7 @@
       <c r="G46" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="1">
         <v>192</v>
       </c>
     </row>
@@ -2018,7 +2044,7 @@
       <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="1">
         <v>158.5</v>
       </c>
     </row>
@@ -2042,7 +2068,7 @@
       <c r="G49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="1">
         <v>159</v>
       </c>
     </row>
@@ -2059,7 +2085,7 @@
       <c r="G50" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="1">
         <v>425</v>
       </c>
     </row>
@@ -2073,7 +2099,7 @@
       <c r="G51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="1">
         <v>399</v>
       </c>
     </row>
@@ -2090,7 +2116,7 @@
       <c r="G52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="1">
         <v>63</v>
       </c>
     </row>
@@ -2110,7 +2136,7 @@
       <c r="G53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="1">
         <v>251</v>
       </c>
     </row>
@@ -2127,7 +2153,7 @@
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="1">
         <v>1600</v>
       </c>
     </row>
@@ -2144,8 +2170,19 @@
       <c r="G55" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="1">
         <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="23" customFormat="1">
+      <c r="A64" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="H64" s="24">
+        <f>SUM(H2:H55)</f>
+        <v>17780.95</v>
       </c>
     </row>
   </sheetData>
@@ -2157,45 +2194,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="17" customWidth="1"/>
-    <col min="2" max="2" width="11" style="9" customWidth="1"/>
-    <col min="3" max="3" width="9" style="17"/>
-    <col min="4" max="4" width="11.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="9" customWidth="1"/>
-    <col min="6" max="6" width="19" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9" style="16"/>
+    <col min="4" max="4" width="11.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -2205,531 +2242,547 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1">
-      <c r="A2" s="4">
+    <row r="2" spans="1:9" s="21" customFormat="1">
+      <c r="A2" s="3">
         <v>41710</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="5">
+      <c r="C2" s="12"/>
+      <c r="D2" s="4">
         <v>700</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f>SUM(C2:D2)</f>
         <v>700</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>415.5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="22" customFormat="1">
-      <c r="A3" s="7">
+    <row r="3" spans="1:9" s="21" customFormat="1">
+      <c r="A3" s="6">
         <v>41711</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>400</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="19">
         <v>430</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1">
-      <c r="A4" s="7">
+    <row r="4" spans="1:9" s="21" customFormat="1">
+      <c r="A4" s="6">
         <v>41712</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <v>608.5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>500</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f>SUM(C4:D4)</f>
         <v>1108.5</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="19">
         <v>230</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="22" customFormat="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:9" s="21" customFormat="1">
+      <c r="A5" s="6">
         <v>41713</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="16">
         <v>510</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>100</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f>SUM(C5:D5)</f>
         <v>610</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="19">
         <v>294</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="22" customFormat="1">
-      <c r="A6" s="10">
+    <row r="6" spans="1:9" s="21" customFormat="1">
+      <c r="A6" s="9">
         <v>41714</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>280</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>SUM(C6:D6)</f>
         <v>380</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="20">
         <v>304</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="22" customFormat="1">
-      <c r="A7" s="4">
+    <row r="7" spans="1:9" s="21" customFormat="1">
+      <c r="A7" s="3">
         <v>41715</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>508.5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>255</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f>SUM(C7:D7)</f>
         <v>763.5</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>288.5</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>41716</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="16">
         <v>474.5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>200</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <f>SUM(C8:D8)</f>
         <v>674.5</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="19">
         <v>245</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>41717</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>400</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="19">
         <v>215.5</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>41718</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="16">
         <v>552.5</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>400</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f>SUM(C10:D10)</f>
         <v>952.5</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <v>218</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>41719</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="16">
         <v>429</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>300</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>729</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="19">
         <v>240</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>41720</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <v>337</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>300</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <f>SUM(C12:D12)</f>
         <v>637</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="19">
         <v>239</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>41721</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>337</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>265</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>602</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="20">
         <v>257</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>41722</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>442.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>200</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>642.4</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="18">
         <v>236</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>41723</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="16">
         <v>709</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>400</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>1109</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="19">
         <v>229.5</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>41724</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="16">
         <v>360.5</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>360.5</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="19">
         <v>291.5</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="9"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>41725</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="16">
         <v>459</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>400</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>859</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="19">
         <v>274.5</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="9"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>41726</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="16">
         <v>498</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <v>200</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>698</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="19">
         <v>277</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="9"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>41727</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="16">
         <v>334.5</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="7">
         <v>200</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>534.5</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>41728</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="11">
+      <c r="C20" s="17"/>
+      <c r="D20" s="10">
         <v>200</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="11"/>
+      <c r="F20" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="11" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="26" spans="1:9" s="23" customFormat="1">
+      <c r="A26" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="26"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="27">
+        <f>SUM(D2:D20)</f>
+        <v>5520</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,18 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>500多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸡胸肉一箱，培根X1，里脊X2，整理箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>500多？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>南环桥进货+中翔小商品市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,6 +615,10 @@
   </si>
   <si>
     <t>SUM总金额:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉一箱155，培根34 X 2，里脊22 X 2，生菜3, 鲜肉14 , 卤肉 23 杂物125 ,整理箱等117+123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,26 +855,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1282,7 +1274,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1299,7 +1291,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1315,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1861,20 +1853,20 @@
       <c r="A38" s="2">
         <v>41720</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>92</v>
+      <c r="B38" s="1">
+        <v>672</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>94</v>
+      <c r="H38" s="1">
+        <v>672</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1885,10 +1877,10 @@
         <v>379</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>86</v>
@@ -1908,7 +1900,7 @@
         <v>90</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>86</v>
@@ -1925,10 +1917,10 @@
         <v>193</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>0</v>
@@ -1942,10 +1934,10 @@
         <v>84.5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>0</v>
@@ -1962,10 +1954,10 @@
         <v>1250</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
@@ -1985,7 +1977,7 @@
         <v>76</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>20</v>
@@ -1999,10 +1991,10 @@
         <v>14.65</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>20</v>
@@ -2016,13 +2008,13 @@
         <v>192</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F46" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H46" s="1">
         <v>192</v>
@@ -2036,10 +2028,10 @@
         <v>158.5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
@@ -2063,7 +2055,7 @@
         <v>90</v>
       </c>
       <c r="F49" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>0</v>
@@ -2080,7 +2072,7 @@
         <v>425</v>
       </c>
       <c r="F50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>0</v>
@@ -2094,7 +2086,7 @@
         <v>399</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
@@ -2111,7 +2103,7 @@
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>20</v>
@@ -2128,10 +2120,10 @@
         <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F53" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>20</v>
@@ -2142,13 +2134,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E54">
         <v>1600</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -2159,30 +2151,30 @@
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F55" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H55" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="23" customFormat="1">
-      <c r="A64" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="H64" s="24">
+    <row r="64" spans="1:8" s="22" customFormat="1">
+      <c r="A64" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="H64" s="23">
         <f>SUM(H2:H55)</f>
-        <v>17780.95</v>
+        <v>18452.95</v>
       </c>
     </row>
   </sheetData>
@@ -2218,7 +2210,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>35</v>
@@ -2227,7 +2219,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>31</v>
@@ -2247,7 +2239,7 @@
         <v>41710</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="4">
@@ -2275,7 +2267,7 @@
         <v>41711</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>89</v>
@@ -2284,7 +2276,7 @@
         <v>400</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>1</v>
@@ -2304,7 +2296,7 @@
         <v>41712</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C4" s="16">
         <v>608.5</v>
@@ -2334,7 +2326,7 @@
         <v>41713</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="16">
         <v>510</v>
@@ -2364,7 +2356,7 @@
         <v>41714</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="17">
         <v>280</v>
@@ -2394,7 +2386,7 @@
         <v>41715</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="12">
         <v>508.5</v>
@@ -2424,7 +2416,7 @@
         <v>41716</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C8" s="16">
         <v>474.5</v>
@@ -2454,7 +2446,7 @@
         <v>41717</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>88</v>
@@ -2463,7 +2455,7 @@
         <v>400</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>64</v>
@@ -2483,7 +2475,7 @@
         <v>41718</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="16">
         <v>552.5</v>
@@ -2511,7 +2503,7 @@
         <v>41719</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C11" s="16">
         <v>429</v>
@@ -2538,7 +2530,7 @@
         <v>41720</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" s="16">
         <v>337</v>
@@ -2566,7 +2558,7 @@
         <v>41721</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C13" s="17">
         <v>337</v>
@@ -2593,7 +2585,7 @@
         <v>41722</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C14" s="12">
         <v>442.5</v>
@@ -2620,7 +2612,7 @@
         <v>41723</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C15" s="16">
         <v>709</v>
@@ -2638,7 +2630,7 @@
         <v>229.5</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I15" s="8"/>
     </row>
@@ -2647,19 +2639,19 @@
         <v>41724</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="16">
         <v>360.5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E16" s="8">
         <v>360.5</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G16" s="19">
         <v>291.5</v>
@@ -2674,7 +2666,7 @@
         <v>41725</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C17" s="16">
         <v>459</v>
@@ -2686,7 +2678,7 @@
         <v>859</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G17" s="19">
         <v>274.5</v>
@@ -2701,7 +2693,7 @@
         <v>41726</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="16">
         <v>498</v>
@@ -2713,7 +2705,7 @@
         <v>698</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G18" s="19">
         <v>277</v>
@@ -2728,7 +2720,7 @@
         <v>41727</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="16">
         <v>334.5</v>
@@ -2740,7 +2732,7 @@
         <v>534.5</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>15</v>
@@ -2752,7 +2744,7 @@
         <v>41728</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="10">
@@ -2760,7 +2752,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="10" t="s">
@@ -2768,21 +2760,21 @@
       </c>
       <c r="I20" s="11"/>
     </row>
-    <row r="26" spans="1:9" s="23" customFormat="1">
-      <c r="A26" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27">
+    <row r="26" spans="1:9" s="22" customFormat="1">
+      <c r="A26" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26">
         <f>SUM(D2:D20)</f>
         <v>5520</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2825,13 +2817,13 @@
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2842,41 +2834,41 @@
         <v>85</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -619,6 +619,30 @@
   </si>
   <si>
     <t>鸡胸肉一箱155，培根34 X 2，里脊22 X 2，生菜3, 鲜肉14 , 卤肉 23 杂物125 ,整理箱等117+123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油一箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张慧工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海鸡排进货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,74 +906,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -961,7 +917,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1307,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1730,6 +1686,20 @@
         <v>172.5</v>
       </c>
     </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="1">
+        <v>2715</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2715</v>
+      </c>
+    </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2">
         <v>41717</v>
@@ -2164,6 +2134,54 @@
       </c>
       <c r="H55" s="1">
         <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" s="1">
+        <v>145</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" t="s">
+        <v>152</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H56" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="E57">
+        <v>833</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H57" s="1">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3985</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H58" s="1">
+        <v>3985</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1">
@@ -2174,7 +2192,7 @@
       <c r="D64" s="23"/>
       <c r="H64" s="23">
         <f>SUM(H2:H55)</f>
-        <v>18452.95</v>
+        <v>21167.950000000004</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2207,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2760,6 +2778,26 @@
       </c>
       <c r="I20" s="11"/>
     </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="9">
+        <v>41729</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="7">
+        <v>100</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" s="19">
+        <v>204</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
       <c r="A26" s="24" t="s">
         <v>149</v>
@@ -2767,8 +2805,8 @@
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26">
-        <f>SUM(D2:D20)</f>
-        <v>5520</v>
+        <f>SUM(D2:D21)</f>
+        <v>5620</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="27"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -643,6 +643,14 @@
   </si>
   <si>
     <t>上海鸡排进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特味浓炸鸡腌料 X 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝网购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,6 +914,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -917,7 +993,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1264,7 +1340,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2182,6 +2258,20 @@
       </c>
       <c r="H58" s="1">
         <v>3985</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="C59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1">

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -567,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.31,4.1请假2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>香菜2.5,里脊21,培根35 X 2,牛肉38,卤牛肉27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>上海鸡排进货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,6 +643,14 @@
   </si>
   <si>
     <t>淘宝网购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.30,3.31请假2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1340,7 +1340,7 @@
   <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1767,10 +1767,10 @@
         <v>2715</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="1">
         <v>2715</v>
@@ -1906,7 +1906,7 @@
         <v>91</v>
       </c>
       <c r="F38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>86</v>
@@ -2077,7 +2077,7 @@
         <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
@@ -2132,7 +2132,7 @@
         <v>399</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
@@ -2149,7 +2149,7 @@
         <v>90</v>
       </c>
       <c r="F52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>20</v>
@@ -2166,10 +2166,10 @@
         <v>251</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
         <v>141</v>
-      </c>
-      <c r="F53" t="s">
-        <v>142</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>20</v>
@@ -2180,13 +2180,13 @@
     </row>
     <row r="54" spans="1:8">
       <c r="C54" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54">
         <v>1600</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
@@ -2197,16 +2197,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="B55" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" t="s">
         <v>145</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="H55" s="1">
         <v>390</v>
@@ -2217,13 +2217,13 @@
         <v>145</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s">
         <v>151</v>
       </c>
-      <c r="F56" t="s">
-        <v>152</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H56" s="1">
         <v>145</v>
@@ -2234,10 +2234,10 @@
         <v>833</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="H57" s="1">
         <v>833</v>
@@ -2251,10 +2251,10 @@
         <v>3985</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H58" s="1">
         <v>3985</v>
@@ -2262,10 +2262,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="C59" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>20</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="64" spans="1:8" s="22" customFormat="1">
       <c r="A64" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="23"/>
       <c r="D64" s="23"/>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2869,34 +2869,48 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="9">
+      <c r="A21" s="3">
         <v>41729</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>155</v>
+      <c r="B21" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="D21" s="7">
         <v>100</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G21" s="19">
         <v>204</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="3">
+        <v>41730</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="7">
+        <v>200</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
       <c r="A26" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26">
-        <f>SUM(D2:D21)</f>
-        <v>5620</v>
+        <f>SUM(D2:D22)</f>
+        <v>5820</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="27"/>
@@ -2916,7 +2930,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2988,7 +3002,7 @@
         <v>96</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:7">

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,22 @@
   </si>
   <si>
     <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400张优惠券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜3,火腿一包24,牛肚5斤100,千张3.3一斤50斤165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1337,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2002,7 +2018,7 @@
       <c r="C43" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2185,7 +2201,7 @@
       <c r="E54">
         <v>1600</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2274,13 +2290,47 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="22" customFormat="1">
-      <c r="A64" s="22" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="2">
+        <v>41731</v>
+      </c>
+      <c r="B60" s="1">
+        <v>78</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="C61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s">
+        <v>162</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="22" customFormat="1">
+      <c r="A75" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="H64" s="23">
+      <c r="B75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="H75" s="23">
         <f>SUM(H2:H55)</f>
         <v>21167.950000000004</v>
       </c>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -667,6 +667,22 @@
   </si>
   <si>
     <t>香菜3,火腿一包24,牛肚5斤100,千张3.3一斤50斤165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力奶茶X2，香芋奶茶X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -930,74 +946,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1009,7 +957,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1355,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2324,6 +2272,23 @@
         <v>292</v>
       </c>
     </row>
+    <row r="62" spans="1:8">
+      <c r="B62" s="1">
+        <v>114.1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="1">
+        <v>114.1</v>
+      </c>
+    </row>
     <row r="75" spans="1:8" s="22" customFormat="1">
       <c r="A75" s="22" t="s">
         <v>148</v>
@@ -2346,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2951,6 +2916,29 @@
       <c r="F22" s="19" t="s">
         <v>1</v>
       </c>
+      <c r="H22" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="3">
+        <v>41731</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23" s="7">
+        <v>100</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="19">
+        <v>233.5</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="22" customFormat="1">
       <c r="A26" s="24" t="s">
@@ -2959,8 +2947,8 @@
       <c r="B26" s="25"/>
       <c r="C26" s="24"/>
       <c r="D26" s="26">
-        <f>SUM(D2:D22)</f>
-        <v>5820</v>
+        <f>SUM(D2:D23)</f>
+        <v>5920</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="27"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -2312,7 +2312,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2934,7 +2934,7 @@
         <v>165</v>
       </c>
       <c r="G23" s="19">
-        <v>233.5</v>
+        <v>213.5</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>15</v>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -683,6 +683,74 @@
   </si>
   <si>
     <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;480.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;580.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽纸大包X2 24，保鲜袋卷X2 30，酸梅汤杨梅汁 60，老抽X2 25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生菜 2，黄瓜一袋 28，泡打粉X1 3，猪肉5斤多 45，牛百叶6斤多128，鸡胸肉一箱 148，里脊肉X5 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯箱片x3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +920,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,6 +1006,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2146,7 +2223,7 @@
       <c r="C54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>1600</v>
       </c>
       <c r="F54" s="1" t="s">
@@ -2166,6 +2243,7 @@
       <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>145</v>
       </c>
@@ -2183,6 +2261,7 @@
       <c r="C56" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>151</v>
       </c>
@@ -2194,7 +2273,7 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="E57">
+      <c r="E57" s="1">
         <v>833</v>
       </c>
       <c r="F57" s="1" t="s">
@@ -2289,13 +2368,71 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="22" customFormat="1">
-      <c r="A75" s="22" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="2">
+        <v>41734</v>
+      </c>
+      <c r="B63" s="1">
+        <v>139</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" t="s">
+        <v>175</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2">
+        <v>41735</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="E64" s="1">
+        <v>62</v>
+      </c>
+      <c r="F64" t="s">
+        <v>178</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="27">
+      <c r="A65" s="2">
+        <v>41736</v>
+      </c>
+      <c r="B65" s="1">
+        <v>464</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F65" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="22" customFormat="1">
+      <c r="A76" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="H75" s="23">
+      <c r="B76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="H76" s="23">
         <f>SUM(H2:H55)</f>
         <v>21167.950000000004</v>
       </c>
@@ -2309,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2324,8 +2461,8 @@
     <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2350,10 +2487,10 @@
       <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2378,7 +2515,7 @@
       <c r="G2" s="18">
         <v>415.5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2407,7 +2544,7 @@
       <c r="G3" s="19">
         <v>430</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -2437,7 +2574,7 @@
       <c r="G4" s="19">
         <v>230</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="16" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2467,7 +2604,7 @@
       <c r="G5" s="19">
         <v>294</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2497,7 +2634,7 @@
       <c r="G6" s="20">
         <v>304</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="17" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2527,7 +2664,7 @@
       <c r="G7" s="18">
         <v>288.5</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="12" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -2557,7 +2694,7 @@
       <c r="G8" s="19">
         <v>245</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2586,7 +2723,7 @@
       <c r="G9" s="19">
         <v>215.5</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="16" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2616,10 +2753,9 @@
       <c r="G10" s="19">
         <v>218</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6">
@@ -2643,10 +2779,9 @@
       <c r="G11" s="19">
         <v>240</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="6">
@@ -2671,10 +2806,9 @@
       <c r="G12" s="19">
         <v>239</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="9">
@@ -2698,7 +2832,7 @@
       <c r="G13" s="20">
         <v>257</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="17" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="11"/>
@@ -2725,7 +2859,7 @@
       <c r="G14" s="18">
         <v>236</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="12" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="5"/>
@@ -2752,10 +2886,9 @@
       <c r="G15" s="19">
         <v>229.5</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="6">
@@ -2779,12 +2912,11 @@
       <c r="G16" s="19">
         <v>291.5</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9">
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="6">
         <v>41725</v>
       </c>
@@ -2806,12 +2938,11 @@
       <c r="G17" s="19">
         <v>274.5</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9">
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>41726</v>
       </c>
@@ -2833,12 +2964,11 @@
       <c r="G18" s="19">
         <v>277</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="6">
         <v>41727</v>
       </c>
@@ -2857,104 +2987,317 @@
       <c r="F19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="9">
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="6">
         <v>41728</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <v>200</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9">
+    </row>
+    <row r="21" spans="1:10" s="30" customFormat="1">
       <c r="A21" s="3">
         <v>41729</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="7">
+      <c r="C21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="4">
         <v>100</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="E21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>204</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="3">
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" s="21" customFormat="1">
+      <c r="A22" s="6">
         <v>41730</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>158</v>
       </c>
+      <c r="C22" s="16">
+        <v>698</v>
+      </c>
       <c r="D22" s="7">
         <v>200</v>
       </c>
+      <c r="E22" s="8">
+        <v>898</v>
+      </c>
       <c r="F22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="G22" s="19">
+        <v>224</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" s="21" customFormat="1">
+      <c r="A23" s="6">
         <v>41731</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>166</v>
       </c>
+      <c r="C23" s="16">
+        <v>540.5</v>
+      </c>
       <c r="D23" s="7">
         <v>100</v>
       </c>
+      <c r="E23" s="8">
+        <v>640.5</v>
+      </c>
       <c r="F23" s="19" t="s">
         <v>165</v>
       </c>
       <c r="G23" s="19">
         <v>213.5</v>
       </c>
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="22" customFormat="1">
-      <c r="A26" s="24" t="s">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" s="21" customFormat="1">
+      <c r="A24" s="6">
+        <v>41732</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="16">
+        <v>755.5</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="8">
+        <v>755.5</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="19">
+        <v>191</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" s="21" customFormat="1">
+      <c r="A25" s="6">
+        <v>41733</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="16">
+        <v>461.5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>200</v>
+      </c>
+      <c r="E25" s="8">
+        <v>661.5</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="19">
+        <v>93</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" s="21" customFormat="1">
+      <c r="A26" s="6">
+        <v>41734</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="21" customFormat="1">
+      <c r="A27" s="6">
+        <v>41735</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="31" customFormat="1">
+      <c r="A28" s="9">
+        <v>41736</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="6">
+        <v>41737</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="6"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="6"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="6"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="6"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="6"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="6"/>
+    </row>
+    <row r="58" spans="1:9" s="22" customFormat="1">
+      <c r="A58" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="26">
+      <c r="B58" s="25"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="26">
         <f>SUM(D2:D23)</f>
         <v>5920</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="190">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -751,6 +751,30 @@
   </si>
   <si>
     <t>放假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向食堂老板娘预借现金10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓬松剂X5,190,花椒粉X1,225,制卤香料X2,86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G上网卡X1,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电信3G上网卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4旷工一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1006,9 +1030,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1017,12 +1038,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1034,7 +1129,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1347,7 +1442,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1364,7 +1459,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
+      <c r="E3" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1380,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2416,7 +2511,7 @@
       <c r="C65" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="28" t="s">
         <v>177</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -2424,6 +2519,43 @@
       </c>
       <c r="H65" s="1">
         <v>464</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2">
+        <v>41737</v>
+      </c>
+      <c r="B66" s="1">
+        <v>501</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F66" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="B67" s="1">
+        <v>300</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:8" s="22" customFormat="1">
@@ -2446,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2916,7 +3048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:12">
       <c r="A17" s="6">
         <v>41725</v>
       </c>
@@ -2942,7 +3074,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" s="6">
         <v>41726</v>
       </c>
@@ -2968,7 +3100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="6">
         <v>41727</v>
       </c>
@@ -2991,7 +3123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>41728</v>
       </c>
@@ -3008,7 +3140,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="30" customFormat="1">
+    <row r="21" spans="1:12" s="29" customFormat="1">
       <c r="A21" s="3">
         <v>41729</v>
       </c>
@@ -3035,7 +3167,7 @@
       </c>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:10" s="21" customFormat="1">
+    <row r="22" spans="1:12" s="21" customFormat="1">
       <c r="A22" s="6">
         <v>41730</v>
       </c>
@@ -3062,7 +3194,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:10" s="21" customFormat="1">
+    <row r="23" spans="1:12" s="21" customFormat="1">
       <c r="A23" s="6">
         <v>41731</v>
       </c>
@@ -3089,7 +3221,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:10" s="21" customFormat="1">
+    <row r="24" spans="1:12" s="21" customFormat="1">
       <c r="A24" s="6">
         <v>41732</v>
       </c>
@@ -3116,7 +3248,7 @@
       </c>
       <c r="I24" s="8"/>
     </row>
-    <row r="25" spans="1:10" s="21" customFormat="1">
+    <row r="25" spans="1:12" s="21" customFormat="1">
       <c r="A25" s="6">
         <v>41733</v>
       </c>
@@ -3143,7 +3275,7 @@
       </c>
       <c r="I25" s="8"/>
     </row>
-    <row r="26" spans="1:10" s="21" customFormat="1">
+    <row r="26" spans="1:12" s="21" customFormat="1">
       <c r="A26" s="6">
         <v>41734</v>
       </c>
@@ -3161,7 +3293,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="21" customFormat="1">
+    <row r="27" spans="1:12" s="21" customFormat="1">
       <c r="A27" s="6">
         <v>41735</v>
       </c>
@@ -3179,7 +3311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="31" customFormat="1">
+    <row r="28" spans="1:12" s="30" customFormat="1">
       <c r="A28" s="9">
         <v>41736</v>
       </c>
@@ -3197,21 +3329,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="6">
         <v>41737</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1">
@@ -3310,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3390,6 +3527,9 @@
       <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>108</v>
       </c>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,6 +775,18 @@
   </si>
   <si>
     <t>4.4旷工一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手抓饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖找钱(垫付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖找钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +956,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,11 +1050,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,7 +1457,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1459,7 +1474,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1475,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2558,6 +2573,43 @@
         <v>300</v>
       </c>
     </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B68" s="1">
+        <v>200</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="B69" s="1">
+        <v>20</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>20</v>
+      </c>
+    </row>
     <row r="76" spans="1:8" s="22" customFormat="1">
       <c r="A76" s="22" t="s">
         <v>148</v>
@@ -2581,7 +2633,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3336,7 +3388,7 @@
       <c r="B29" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="31" t="s">
         <v>184</v>
       </c>
       <c r="K29" s="22"/>
@@ -3447,7 +3499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -788,6 +788,37 @@
   <si>
     <t>外卖找钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖卡片500张，宣传单页1000张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖线板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉十斤 110，大葱14，烤肠x5 110，生菜5斤 6，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四</t>
   </si>
 </sst>
 </file>
@@ -1054,10 +1085,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1065,74 +1096,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1144,7 +1107,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1457,7 +1420,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1474,7 +1437,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1488,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2575,48 +2538,102 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2">
+        <v>41738</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="E68" s="1">
+        <v>268</v>
+      </c>
+      <c r="F68" t="s">
+        <v>193</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H68" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2"/>
+      <c r="C69" s="1"/>
+      <c r="E69" s="1">
+        <v>24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2">
         <v>41739</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B70" s="1">
         <v>200</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F68" s="33" t="s">
+      <c r="F70" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H70" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="B69" s="1">
+    <row r="71" spans="1:8">
+      <c r="B71" s="1">
         <v>20</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F71" t="s">
         <v>191</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H71" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="22" customFormat="1">
-      <c r="A76" s="22" t="s">
+    <row r="72" spans="1:8">
+      <c r="A72" s="2">
+        <v>41739</v>
+      </c>
+      <c r="B72" s="1">
+        <v>240</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H72" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="22" customFormat="1">
+      <c r="A78" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="H76" s="23">
+      <c r="B78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="H78" s="23">
         <f>SUM(H2:H55)</f>
         <v>21167.950000000004</v>
       </c>
@@ -2632,8 +2649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2645,7 +2662,7 @@
     <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
     <col min="6" max="6" width="19" style="19" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="9.875" style="16" customWidth="1"/>
+    <col min="8" max="8" width="9.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2671,7 +2688,7 @@
       <c r="G1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2699,7 +2716,7 @@
       <c r="G2" s="18">
         <v>415.5</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="5" t="s">
@@ -2728,7 +2745,7 @@
       <c r="G3" s="19">
         <v>430</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="8" t="s">
@@ -2758,7 +2775,7 @@
       <c r="G4" s="19">
         <v>230</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="8" t="s">
@@ -2788,7 +2805,7 @@
       <c r="G5" s="19">
         <v>294</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2818,7 +2835,7 @@
       <c r="G6" s="20">
         <v>304</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2848,7 +2865,7 @@
       <c r="G7" s="18">
         <v>288.5</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="5" t="s">
@@ -2878,7 +2895,7 @@
       <c r="G8" s="19">
         <v>245</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I8" s="8" t="s">
@@ -2907,7 +2924,7 @@
       <c r="G9" s="19">
         <v>215.5</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="I9" s="8" t="s">
@@ -2937,7 +2954,7 @@
       <c r="G10" s="19">
         <v>218</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2963,7 +2980,7 @@
       <c r="G11" s="19">
         <v>240</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2990,7 +3007,7 @@
       <c r="G12" s="19">
         <v>239</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3016,7 +3033,7 @@
       <c r="G13" s="20">
         <v>257</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="10" t="s">
         <v>86</v>
       </c>
       <c r="I13" s="11"/>
@@ -3043,7 +3060,7 @@
       <c r="G14" s="18">
         <v>236</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="5"/>
@@ -3070,7 +3087,7 @@
       <c r="G15" s="19">
         <v>229.5</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="7" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3096,7 +3113,7 @@
       <c r="G16" s="19">
         <v>291.5</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3122,7 +3139,7 @@
       <c r="G17" s="19">
         <v>274.5</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3148,7 +3165,7 @@
       <c r="G18" s="19">
         <v>277</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3171,7 +3188,7 @@
       <c r="F19" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3188,7 +3205,7 @@
       <c r="F20" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3214,7 +3231,7 @@
       <c r="G21" s="18">
         <v>204</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="5"/>
@@ -3241,7 +3258,7 @@
       <c r="G22" s="19">
         <v>224</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="I22" s="8"/>
@@ -3268,7 +3285,7 @@
       <c r="G23" s="19">
         <v>213.5</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="8"/>
@@ -3295,7 +3312,7 @@
       <c r="G24" s="19">
         <v>191</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="8"/>
@@ -3322,7 +3339,7 @@
       <c r="G25" s="19">
         <v>93</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="8"/>
@@ -3339,44 +3356,44 @@
       <c r="E26" s="8"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="8"/>
       <c r="J26" s="21" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="21" customFormat="1">
-      <c r="A27" s="6">
+    <row r="27" spans="1:12" s="30" customFormat="1">
+      <c r="A27" s="9">
         <v>41735</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="21" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="30" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="30" customFormat="1">
-      <c r="A28" s="9">
+    <row r="28" spans="1:12" s="21" customFormat="1">
+      <c r="A28" s="6">
         <v>41736</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="11"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
       <c r="J28" s="21" t="s">
         <v>183</v>
       </c>
@@ -3388,6 +3405,24 @@
       <c r="B29" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="C29" s="16">
+        <v>575.5</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E29" s="8">
+        <v>575.5</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="19">
+        <v>170.5</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="J29" s="31" t="s">
         <v>184</v>
       </c>
@@ -3395,13 +3430,61 @@
       <c r="L29" s="22"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="6"/>
+      <c r="A30" s="6">
+        <v>41738</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="16">
+        <v>540.20000000000005</v>
+      </c>
+      <c r="D30" s="7">
+        <v>200</v>
+      </c>
+      <c r="E30" s="8">
+        <v>740.2</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G30" s="19">
+        <v>239.5</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="6"/>
+      <c r="A31" s="6">
+        <v>41739</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="16">
+        <v>992.5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>300</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1292.5</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="G31" s="19">
+        <v>231.5</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="6"/>
+      <c r="A32" s="6">
+        <v>41740</v>
+      </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6"/>
@@ -3485,7 +3568,7 @@
       <c r="E58" s="25"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
-      <c r="H58" s="24"/>
+      <c r="H58" s="26"/>
       <c r="I58" s="25"/>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
     <sheet name="支出" sheetId="2" r:id="rId2"/>
     <sheet name="收入" sheetId="3" r:id="rId3"/>
     <sheet name="考勤" sheetId="4" r:id="rId4"/>
+    <sheet name="排班表" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="239">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -819,13 +821,160 @@
   </si>
   <si>
     <t>四</t>
+  </si>
+  <si>
+    <t>4.14 请假5小时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给潘锐500现金</t>
+  </si>
+  <si>
+    <t>给潘锐500现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市购买小商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插线板X1,扎带X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给潘锐300现金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买大奶茶杯,吸管,洗手液,奶茶袋等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋:40,鸡胸1箱160,鸡排袋和塑料袋64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购电瓶车</t>
+  </si>
+  <si>
+    <t>采购电瓶车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙拉酱X5,100;番茄酱X5,50;辣椒粉X1,90;孜然粉X1,90;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果糖X2,珍珠X2,椰果X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外卖箱150,摄像头376,TF卡50,3G路由器,340;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">人 员 排 班 表 (周) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仪涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃海妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早班:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 : 00 - 18 : 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(早班人员准备食材,检查食材,用料是否临近短缺,报备)</t>
+  </si>
+  <si>
+    <t>晚班:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 : 30 - 20 : 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(晚班必须打扫完卫生才能走)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -841,8 +990,33 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,8 +1029,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -981,13 +1167,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1288,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1096,6 +1318,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1107,7 +1397,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1420,7 +1710,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1437,7 +1727,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="33"/>
+      <c r="E3" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1451,20 +1741,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.875" customWidth="1"/>
+    <col min="3" max="3" width="52.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
-    <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="68.75" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1607,7 +1897,7 @@
       <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1646,11 +1936,9 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="C12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="C13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:8">
@@ -1755,7 +2043,6 @@
       <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
         <v>20</v>
@@ -1850,7 +2137,6 @@
       <c r="C28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
         <v>20</v>
@@ -2201,7 +2487,6 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="C48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:8">
@@ -2316,7 +2601,6 @@
       <c r="C55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E55" s="1"/>
       <c r="F55" t="s">
         <v>145</v>
       </c>
@@ -2334,7 +2618,6 @@
       <c r="C56" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E56" s="1"/>
       <c r="F56" t="s">
         <v>151</v>
       </c>
@@ -2465,7 +2748,6 @@
       <c r="A64" s="2">
         <v>41735</v>
       </c>
-      <c r="C64" s="1"/>
       <c r="E64" s="1">
         <v>62</v>
       </c>
@@ -2540,7 +2822,6 @@
       <c r="A68" s="2">
         <v>41738</v>
       </c>
-      <c r="C68" s="1"/>
       <c r="E68" s="1">
         <v>268</v>
       </c>
@@ -2556,7 +2837,6 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2"/>
-      <c r="C69" s="1"/>
       <c r="E69" s="1">
         <v>24</v>
       </c>
@@ -2627,13 +2907,174 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="22" customFormat="1">
-      <c r="A78" s="22" t="s">
+    <row r="73" spans="1:8">
+      <c r="C73" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E73" s="1">
+        <v>500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>203</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="33">
+        <v>41741</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="1">
+        <v>50</v>
+      </c>
+      <c r="F74" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="C75" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" t="s">
+        <v>206</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H75" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="C76" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="1">
+        <v>116</v>
+      </c>
+      <c r="F76" t="s">
+        <v>207</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="33">
+        <v>41742</v>
+      </c>
+      <c r="B77" s="1">
+        <v>264</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" t="s">
+        <v>209</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="C78" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="1">
+        <v>700</v>
+      </c>
+      <c r="F78" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="33">
+        <v>41743</v>
+      </c>
+      <c r="B79" s="1">
+        <v>330</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>213</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="B80" s="1">
+        <v>84</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F80" t="s">
+        <v>215</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
+      <c r="C81" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E81" s="1">
+        <v>916</v>
+      </c>
+      <c r="F81" t="s">
+        <v>217</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="22" customFormat="1">
+      <c r="A99" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="H78" s="23">
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="H99" s="23">
         <f>SUM(H2:H55)</f>
         <v>21167.950000000004</v>
       </c>
@@ -2649,8 +3090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3580,10 +4021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3669,8 +4110,236 @@
         <v>108</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="22.5"/>
+  <cols>
+    <col min="1" max="1" width="22" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="34" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="34" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="34" customWidth="1"/>
+    <col min="6" max="6" width="13.375" style="34" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="25.5">
+      <c r="D1" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" customHeight="1">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="57" customHeight="1">
+      <c r="A4" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" customHeight="1">
+      <c r="A5" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="52.5" customHeight="1">
+      <c r="A6" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="53.25" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="62.25" customHeight="1">
+      <c r="A8" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="20.25" customHeight="1"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="253">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -885,88 +885,140 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">人 员 排 班 表 (周) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王仪涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚</t>
+  </si>
+  <si>
+    <t>早</t>
+  </si>
+  <si>
+    <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覃海妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早班:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 : 00 - 18 : 00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(早班人员准备食材,检查食材,用料是否临近短缺,报备)</t>
+  </si>
+  <si>
+    <t>晚班:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 : 30 - 20 : 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(晚班必须打扫完卫生才能走)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>外卖箱150,摄像头376,TF卡50,3G路由器,340;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">人 员 排 班 表 (周) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周六</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王仪涛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚</t>
-  </si>
-  <si>
-    <t>早</t>
-  </si>
-  <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>覃海妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早班:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9 : 00 - 18 : 00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(早班人员准备食材,检查食材,用料是否临近短缺,报备)</t>
-  </si>
-  <si>
-    <t>晚班:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11 : 30 - 20 : 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(晚班必须打扫完卫生才能走)</t>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大热狗X1 30，香菜2斤 3，千张20斤 68，藕10斤 10，牛肚48块，油一箱 150块，文具10块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灯箱X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋三筐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶茶原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香芋X2，巧克力X2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>王宜涛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,74 +1370,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1397,7 +1381,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1741,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2215,7 +2199,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="B33" s="1">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>68</v>
@@ -2227,7 +2211,7 @@
         <v>69</v>
       </c>
       <c r="H33" s="1">
-        <v>114.1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2709,7 +2693,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="B62" s="1">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>163</v>
@@ -2721,7 +2705,7 @@
         <v>165</v>
       </c>
       <c r="H62" s="1">
-        <v>114.1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2888,9 +2872,7 @@
       </c>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="2">
-        <v>41739</v>
-      </c>
+      <c r="A72" s="2"/>
       <c r="B72" s="1">
         <v>240</v>
       </c>
@@ -2959,124 +2941,192 @@
       </c>
     </row>
     <row r="76" spans="1:8">
-      <c r="C76" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="E76" s="1">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="H76" s="1">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="33">
-        <v>41742</v>
-      </c>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="27">
       <c r="B77" s="1">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" t="s">
-        <v>209</v>
+        <v>239</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="H77" s="1">
-        <v>264</v>
+        <v>319</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="C78" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E78" s="1">
-        <v>700</v>
+        <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H78" s="1">
-        <v>700</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="33">
-        <v>41743</v>
+        <v>41742</v>
       </c>
       <c r="B79" s="1">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H79" s="1">
-        <v>330</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="B80" s="1">
-        <v>84</v>
-      </c>
       <c r="C80" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="E80" s="1">
+        <v>700</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H80" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="B81" s="1">
+        <v>305</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F81" t="s">
+        <v>243</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H81" s="1">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="33">
+        <v>41743</v>
+      </c>
+      <c r="B82" s="1">
+        <v>330</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F82" t="s">
+        <v>213</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="B83" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="81" spans="3:8">
-      <c r="C81" s="1" t="s">
+      <c r="C83" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="C84" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E84" s="1">
         <v>916</v>
       </c>
-      <c r="F81" t="s">
-        <v>217</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="F84" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H84" s="1">
         <v>916</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="22" customFormat="1">
-      <c r="A99" s="22" t="s">
+    <row r="85" spans="1:8">
+      <c r="A85" s="33">
+        <v>41744</v>
+      </c>
+      <c r="B85" s="1">
+        <v>114</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F85" t="s">
+        <v>245</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H85" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="22" customFormat="1">
+      <c r="A102" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="23"/>
-      <c r="E99" s="23"/>
-      <c r="H99" s="23">
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="H102" s="23">
         <f>SUM(H2:H55)</f>
-        <v>21167.950000000004</v>
+        <v>21167.850000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3090,8 +3140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3822,19 +3872,19 @@
       </c>
     </row>
     <row r="28" spans="1:12" s="21" customFormat="1">
-      <c r="A28" s="6">
+      <c r="A28" s="3">
         <v>41736</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="21" t="s">
         <v>183</v>
       </c>
@@ -3926,53 +3976,163 @@
       <c r="A32" s="6">
         <v>41740</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="16">
+        <v>703.5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>200</v>
+      </c>
+      <c r="E32" s="8">
+        <v>903.5</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="19">
+        <v>263.5</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="6">
+        <v>41741</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="16">
+        <v>569.5</v>
+      </c>
+      <c r="D33" s="7">
+        <v>200</v>
+      </c>
+      <c r="E33" s="8">
+        <v>769.5</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="19">
+        <v>235</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="9">
+        <v>41742</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="17">
+        <v>519</v>
+      </c>
+      <c r="D34" s="10">
+        <v>100</v>
+      </c>
+      <c r="E34" s="11">
+        <v>619</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" s="20">
+        <v>328.5</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="6">
+        <v>41743</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" s="16">
+        <v>638.5</v>
+      </c>
+      <c r="D35" s="7">
+        <v>300</v>
+      </c>
+      <c r="E35" s="8">
+        <v>938.5</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" s="19">
+        <v>219</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="6">
+        <v>41744</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D36" s="7">
+        <v>150</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="6">
+        <v>41745</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="6"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:9">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:9">
       <c r="A40" s="6"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:9">
       <c r="A41" s="6"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:9">
       <c r="A42" s="6"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:9">
       <c r="A43" s="6"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:9">
       <c r="A44" s="6"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:9">
       <c r="A45" s="6"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:9">
       <c r="A46" s="6"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:9">
       <c r="A47" s="6"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:9">
       <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:9">
@@ -4144,57 +4304,57 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="D1" s="35" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>224</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>230</v>
-      </c>
       <c r="H4" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1">
@@ -4202,25 +4362,25 @@
         <v>82</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>229</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1">
@@ -4228,51 +4388,51 @@
         <v>104</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>230</v>
-      </c>
       <c r="H6" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="53.25" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>229</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="62.25" customHeight="1">
@@ -4280,48 +4440,48 @@
         <v>109</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="G8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>228</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1"/>
     <row r="11" spans="1:8">
       <c r="A11" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>233</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="G11" s="34" t="s">
         <v>234</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="255">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1019,6 +1019,14 @@
   </si>
   <si>
     <t>王宜涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚87;黄瓜28;五湖油X5,200;猪肉11/斤,拿五斤,64;千张70斤,245;生菜10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.16日最后一天,工资结算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1370,6 +1378,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1381,7 +1457,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1728,7 +1804,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3116,6 +3192,26 @@
         <v>114</v>
       </c>
     </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="33">
+        <v>41745</v>
+      </c>
+      <c r="B86" s="1">
+        <v>634</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1">
+        <v>634</v>
+      </c>
+    </row>
     <row r="102" spans="1:8" s="22" customFormat="1">
       <c r="A102" s="22" t="s">
         <v>148</v>
@@ -3140,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -4183,8 +4279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4268,6 +4364,9 @@
       </c>
       <c r="D4" s="1" t="s">
         <v>108</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:7">

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="257">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1027,6 +1027,14 @@
   </si>
   <si>
     <t>4.16日最后一天,工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.10日入职</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1076,7 +1084,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1098,6 +1106,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,7 +1262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1371,6 +1385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1803,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4277,26 +4294,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="41" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="41" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="41" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4305,7 +4322,7 @@
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4314,18 +4331,21 @@
       <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4334,12 +4354,12 @@
       <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4348,30 +4368,54 @@
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="B4" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="41" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="C5" s="1" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="23">
+        <v>297</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1900</v>
+      </c>
+      <c r="D7" s="41">
+        <v>1600</v>
+      </c>
+      <c r="E7" s="23">
+        <v>427</v>
+      </c>
+      <c r="F7" s="23">
+        <v>427</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1624</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="262">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1035,6 +1035,26 @@
   </si>
   <si>
     <t>3.10日入职</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>512(已付400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工3月工资结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海丰:1900,元菊400,海妹400,宜涛300,伍玉莲1030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>送餐箱150,起酥油117,指纹打卡机100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1383,11 +1403,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1787,7 +1807,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1804,7 +1824,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1820,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D93" sqref="D93"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3229,6 +3249,37 @@
         <v>634</v>
       </c>
     </row>
+    <row r="87" spans="1:8">
+      <c r="C87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F87" t="s">
+        <v>259</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="33">
+        <v>41746</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1">
+        <v>367</v>
+      </c>
+    </row>
     <row r="102" spans="1:8" s="22" customFormat="1">
       <c r="A102" s="22" t="s">
         <v>148</v>
@@ -3254,7 +3305,7 @@
   <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4296,24 +4347,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.375" style="40" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="40" customWidth="1"/>
     <col min="5" max="5" width="26.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.75" style="41" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="40" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>80</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4322,7 +4373,7 @@
       <c r="C1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
         <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -4331,12 +4382,12 @@
       <c r="F1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4345,7 +4396,7 @@
       <c r="C2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="40" t="s">
         <v>95</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -4354,12 +4405,12 @@
       <c r="F2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4368,10 +4419,10 @@
       <c r="C3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="40" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4382,10 +4433,10 @@
       <c r="C4" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="40" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4395,23 +4446,23 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
-      <c r="A7" s="41"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="23">
         <v>297</v>
       </c>
       <c r="C7" s="23">
         <v>1900</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="40">
         <v>1600</v>
       </c>
-      <c r="E7" s="23">
-        <v>427</v>
-      </c>
-      <c r="F7" s="23">
-        <v>427</v>
-      </c>
-      <c r="G7" s="41">
+      <c r="E7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="G7" s="40">
         <v>1624</v>
       </c>
       <c r="L7" s="23" t="s">

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="268">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1055,6 +1055,29 @@
   </si>
   <si>
     <t>送餐箱150,起酥油117,指纹打卡机100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伍玉莲工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>俞杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1415,74 +1438,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1494,7 +1449,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1838,10 +1793,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3264,33 +3219,64 @@
       </c>
     </row>
     <row r="88" spans="1:8">
-      <c r="A88" s="33">
+      <c r="E88" s="1">
+        <v>650</v>
+      </c>
+      <c r="F88" t="s">
+        <v>262</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H88" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="33">
         <v>41746</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F89" t="s">
         <v>261</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H89" s="1">
         <v>367</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="22" customFormat="1">
-      <c r="A102" s="22" t="s">
+    <row r="90" spans="1:8">
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F90" t="s">
+        <v>265</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H90" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="22" customFormat="1">
+      <c r="A103" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
-      <c r="D102" s="23"/>
-      <c r="E102" s="23"/>
-      <c r="H102" s="23">
-        <f>SUM(H2:H55)</f>
-        <v>21167.850000000002</v>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="H103" s="23">
+        <f>SUM(H2:H90)</f>
+        <v>38716.850000000006</v>
       </c>
     </row>
   </sheetData>
@@ -3304,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4248,14 +4234,23 @@
       <c r="B36" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="C36" s="16">
+        <v>673.3</v>
+      </c>
       <c r="D36" s="7">
         <v>150</v>
       </c>
+      <c r="E36" s="8">
+        <v>823.3</v>
+      </c>
       <c r="F36" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="H36" s="7" t="s">
-        <v>15</v>
+      <c r="G36" s="16">
+        <v>234.5</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4265,12 +4260,52 @@
       <c r="B37" s="8" t="s">
         <v>251</v>
       </c>
+      <c r="C37" s="16">
+        <v>593</v>
+      </c>
+      <c r="D37" s="7">
+        <v>200</v>
+      </c>
+      <c r="E37" s="8">
+        <v>793</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="G37" s="19">
+        <v>273</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="6"/>
+      <c r="A38" s="6">
+        <v>41746</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D38" s="7">
+        <v>400</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" s="19">
+        <v>193</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6">
+        <v>41747</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="274">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1078,30 @@
   </si>
   <si>
     <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芝麻面酱35 X 6,卤汤料包50 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红茶 25 X 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.4.21-2014.4.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1438,6 +1462,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1449,7 +1541,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1796,7 +1888,7 @@
   <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3266,6 +3358,57 @@
         <v>30</v>
       </c>
     </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="1">
+        <v>455</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="33">
+        <v>41750</v>
+      </c>
+      <c r="B92" s="1">
+        <v>410</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F92" t="s">
+        <v>269</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="1">
+        <v>100</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F93" t="s">
+        <v>271</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H93" s="1">
+        <v>100</v>
+      </c>
+    </row>
     <row r="103" spans="1:8" s="22" customFormat="1">
       <c r="A103" s="22" t="s">
         <v>148</v>
@@ -3275,8 +3418,8 @@
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
       <c r="H103" s="23">
-        <f>SUM(H2:H90)</f>
-        <v>38716.850000000006</v>
+        <f>SUM(H2:H93)</f>
+        <v>39681.850000000006</v>
       </c>
     </row>
   </sheetData>
@@ -4383,7 +4526,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4512,10 +4655,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -4710,6 +4853,165 @@
         <v>236</v>
       </c>
       <c r="F12" s="34" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="49.5" customHeight="1">
+      <c r="D14" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1"/>
+    <row r="16" spans="1:8" ht="45" customHeight="1">
+      <c r="A16" s="36"/>
+      <c r="B16" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="64.5" customHeight="1">
+      <c r="A17" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="51" customHeight="1">
+      <c r="A18" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="59.25" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A20" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="34" t="s">
         <v>237</v>
       </c>
     </row>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3413,7 +3413,10 @@
       <c r="A103" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="23"/>
+      <c r="B103" s="23">
+        <f>SUM(B2:B102)</f>
+        <v>23168.85</v>
+      </c>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="277">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1102,6 +1102,18 @@
   </si>
   <si>
     <t>休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3436,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4454,13 +4466,46 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="6"/>
+      <c r="A40" s="6">
+        <v>41748</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="7">
+        <v>250</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6"/>
+      <c r="A41" s="6">
+        <v>41749</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="7">
+        <v>400</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6"/>
+      <c r="A42" s="6">
+        <v>41750</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="6"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="292">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1114,6 +1114,66 @@
   </si>
   <si>
     <t>一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉联厂进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉一箱150，手抓饼两箱 180，烤肠22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚125，猪肉120，竹签10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝酸梅汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海鸡排进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍梦婕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞+潘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向老板娘借1W</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐拿800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐2100（上海鸡排订货）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1474,74 +1534,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1553,7 +1545,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1897,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3386,55 +3378,124 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="33">
+        <v>41749</v>
+      </c>
+      <c r="B92" s="1">
+        <v>255</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F92" t="s">
+        <v>281</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H92" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="33"/>
+      <c r="E93" s="1">
+        <v>70.8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>282</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H93" s="1">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="33">
         <v>41750</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B94" s="1">
         <v>410</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F94" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H94" s="1">
         <v>410</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="B93" s="1">
+    <row r="95" spans="1:8">
+      <c r="B95" s="1">
         <v>100</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F95" t="s">
         <v>271</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H95" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="22" customFormat="1">
-      <c r="A103" s="22" t="s">
+    <row r="96" spans="1:8">
+      <c r="A96" s="33">
+        <v>41751</v>
+      </c>
+      <c r="B96" s="1">
+        <v>352</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" t="s">
+        <v>279</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H96" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="1">
+        <v>2093</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="1">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="22" customFormat="1">
+      <c r="A105" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="23">
-        <f>SUM(B2:B102)</f>
-        <v>23168.85</v>
-      </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="H103" s="23">
-        <f>SUM(H2:H93)</f>
-        <v>39681.850000000006</v>
+      <c r="B105" s="23">
+        <f>SUM(B2:B104)</f>
+        <v>25868.85</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="23"/>
+      <c r="H105" s="23">
+        <f>SUM(H2:H97)</f>
+        <v>42452.650000000009</v>
       </c>
     </row>
   </sheetData>
@@ -3446,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4444,14 +4505,20 @@
       <c r="B38" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="C38" s="16">
+        <v>688.5</v>
+      </c>
       <c r="D38" s="7">
         <v>400</v>
       </c>
+      <c r="E38" s="8">
+        <v>1088.5</v>
+      </c>
       <c r="F38" s="19" t="s">
         <v>267</v>
       </c>
       <c r="G38" s="19">
-        <v>193</v>
+        <v>193.5</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>267</v>
@@ -4464,6 +4531,24 @@
       <c r="B39" s="8" t="s">
         <v>266</v>
       </c>
+      <c r="C39" s="16">
+        <v>894.4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>200</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1094.4000000000001</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" s="19">
+        <v>240.3</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="6">
@@ -4472,11 +4557,20 @@
       <c r="B40" s="8" t="s">
         <v>274</v>
       </c>
+      <c r="C40" s="16">
+        <v>499</v>
+      </c>
       <c r="D40" s="7">
         <v>250</v>
       </c>
+      <c r="E40" s="8">
+        <v>749</v>
+      </c>
       <c r="F40" s="19" t="s">
         <v>123</v>
+      </c>
+      <c r="G40" s="19">
+        <v>231.9</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>123</v>
@@ -4489,14 +4583,23 @@
       <c r="B41" s="8" t="s">
         <v>275</v>
       </c>
+      <c r="C41" s="16">
+        <v>654</v>
+      </c>
       <c r="D41" s="7">
         <v>400</v>
       </c>
+      <c r="E41" s="8">
+        <v>1054</v>
+      </c>
       <c r="F41" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="19" t="s">
-        <v>123</v>
+      <c r="G41" s="16">
+        <v>265</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4506,12 +4609,41 @@
       <c r="B42" s="8" t="s">
         <v>276</v>
       </c>
+      <c r="C42" s="16">
+        <v>873.5</v>
+      </c>
+      <c r="D42" s="7">
+        <v>400</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1273.5</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="6"/>
+      <c r="A43" s="6">
+        <v>41751</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="6"/>
+      <c r="A44" s="6">
+        <v>41752</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="6"/>
@@ -4553,14 +4685,46 @@
       <c r="B58" s="25"/>
       <c r="C58" s="24"/>
       <c r="D58" s="26">
-        <f>SUM(D2:D23)</f>
-        <v>5920</v>
+        <f>SUM(D2:D48)</f>
+        <v>9420</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="27"/>
       <c r="G58" s="27"/>
       <c r="H58" s="26"/>
       <c r="I58" s="25"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="6">
+        <v>41737</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="6">
+        <v>41751</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="E63" s="6">
+        <v>41751</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="F64" s="19" t="s">
+        <v>291</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4573,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="303">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1174,6 +1174,50 @@
   </si>
   <si>
     <t>潘锐2100（上海鸡排订货）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大杯200个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜4.5,大葱34.5,黄瓜35,牛肚105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉联厂进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火腿30X4包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲜活进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各类果汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷饼袋70X2,卷饼纸120X2,各2000个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盾皇进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果糖190</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1534,6 +1578,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1545,7 +1657,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1889,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3482,20 +3594,126 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="22" customFormat="1">
-      <c r="A105" s="22" t="s">
+    <row r="98" spans="1:8">
+      <c r="B98" s="1">
+        <v>90</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F98" t="s">
+        <v>293</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H98" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="33"/>
+      <c r="C99" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F99" t="s">
+        <v>295</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="1">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="33">
+        <v>41752</v>
+      </c>
+      <c r="B100" s="1">
+        <v>120</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F100" t="s">
+        <v>297</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H100" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="B101" s="1">
+        <v>231</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" t="s">
+        <v>299</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H101" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="33">
+        <v>41753</v>
+      </c>
+      <c r="B102" s="1">
+        <v>380</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F102" t="s">
+        <v>300</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H102" s="1">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="B103" s="1">
+        <v>190</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H103" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="22" customFormat="1">
+      <c r="A112" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="23">
-        <f>SUM(B2:B104)</f>
-        <v>25868.85</v>
-      </c>
-      <c r="C105" s="23"/>
-      <c r="D105" s="23"/>
-      <c r="E105" s="23"/>
-      <c r="H105" s="23">
-        <f>SUM(H2:H97)</f>
-        <v>42452.650000000009</v>
+      <c r="B112" s="23">
+        <f>SUM(B2:B111)</f>
+        <v>26879.85</v>
+      </c>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="H112" s="23">
+        <f>SUM(H2:H103)</f>
+        <v>43642.650000000009</v>
       </c>
     </row>
   </sheetData>
@@ -3509,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="304">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1218,6 +1218,10 @@
   </si>
   <si>
     <t>果糖190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25 旷工一天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2003,7 +2007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
@@ -3728,7 +3732,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4953,10 +4957,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5075,6 +5079,11 @@
       </c>
       <c r="L7" s="23" t="s">
         <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="313">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,15 +1213,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>果糖190</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.25 旷工一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰收进货款600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+  </si>
+  <si>
+    <t>蓬松粉38X10,沙拉酱20X3,番茄酱10X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>盾皇进货</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果糖190</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.25 旷工一天</t>
+  </si>
+  <si>
+    <t>珍珠6X3,鸡蛋布丁30X1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉联厂进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰收进货款300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸160X1,里脊20X5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,7 +1305,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1299,6 +1333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,7 +1489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,6 +1614,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2005,10 +2054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3169,20 +3218,22 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="C73" s="1" t="s">
+    <row r="73" spans="1:8" s="44" customFormat="1">
+      <c r="B73" s="43"/>
+      <c r="C73" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="E73" s="1">
+      <c r="D73" s="43"/>
+      <c r="E73" s="43">
         <v>500</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="43">
         <v>500</v>
       </c>
     </row>
@@ -3206,17 +3257,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="C75" s="1" t="s">
+    <row r="75" spans="1:8" s="44" customFormat="1">
+      <c r="B75" s="43"/>
+      <c r="C75" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="F75" t="s">
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G75" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="43">
         <v>300</v>
       </c>
     </row>
@@ -3578,7 +3632,7 @@
         <v>279</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H96" s="1">
         <v>352</v>
@@ -3692,10 +3746,10 @@
         <v>190</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F103" t="s">
         <v>301</v>
-      </c>
-      <c r="F103" t="s">
-        <v>302</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>1</v>
@@ -3704,20 +3758,116 @@
         <v>190</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="22" customFormat="1">
-      <c r="A112" s="22" t="s">
+    <row r="104" spans="1:8" s="44" customFormat="1">
+      <c r="B104" s="43"/>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
+      <c r="E104" s="43">
+        <v>600</v>
+      </c>
+      <c r="F104" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="G104" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H104" s="43">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="33">
+        <v>41756</v>
+      </c>
+      <c r="B105" s="1">
+        <v>490</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F105" t="s">
+        <v>306</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H105" s="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="33">
+        <v>41757</v>
+      </c>
+      <c r="B106" s="1">
+        <v>48</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E106" s="1">
+        <v>300</v>
+      </c>
+      <c r="F106" t="s">
+        <v>308</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H106" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="44" customFormat="1">
+      <c r="A107" s="42"/>
+      <c r="B107" s="43"/>
+      <c r="C107" s="43"/>
+      <c r="D107" s="43"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G107" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="H107" s="43">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="33">
+        <v>41758</v>
+      </c>
+      <c r="B108" s="1">
+        <v>260</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F108" t="s">
+        <v>312</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H108" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="22" customFormat="1">
+      <c r="A113" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="23">
-        <f>SUM(B2:B111)</f>
-        <v>26879.85</v>
-      </c>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="23"/>
-      <c r="H112" s="23">
-        <f>SUM(H2:H103)</f>
-        <v>43642.650000000009</v>
+      <c r="B113" s="23">
+        <f>SUM(B2:B112)</f>
+        <v>27677.85</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23"/>
+      <c r="H113" s="23">
+        <f>SUM(H2:H108)</f>
+        <v>45340.650000000009</v>
       </c>
     </row>
   </sheetData>
@@ -3732,7 +3882,7 @@
   <dimension ref="A1:L64"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4959,8 +5109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5083,7 +5233,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="333">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1256,6 +1256,85 @@
   </si>
   <si>
     <t>鸡胸160X1,里脊20X5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋X3筐，里脊X2包,油X1箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚195，生菜5，千张170，老抽王28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉联厂进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手抓饼X3箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立顿绿茶19.9，砧板28，勺子X3 25，小铁锅40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉10斤多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取2500（元菊工资）+潘锐400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存300，俞杰600，潘锐400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡+潘锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200+100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1489,7 +1568,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1613,9 +1692,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1625,80 +1701,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1710,7 +1730,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2023,7 +2043,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2040,7 +2060,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="41"/>
+      <c r="E3" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2054,10 +2074,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3218,22 +3238,22 @@
         <v>240</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="44" customFormat="1">
-      <c r="B73" s="43"/>
-      <c r="C73" s="43" t="s">
+    <row r="73" spans="1:8" s="43" customFormat="1">
+      <c r="B73" s="42"/>
+      <c r="C73" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43">
+      <c r="D73" s="42"/>
+      <c r="E73" s="42">
         <v>500</v>
       </c>
-      <c r="F73" s="44" t="s">
+      <c r="F73" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="G73" s="43" t="s">
+      <c r="G73" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H73" s="43">
+      <c r="H73" s="42">
         <v>500</v>
       </c>
     </row>
@@ -3257,20 +3277,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:8" s="44" customFormat="1">
-      <c r="B75" s="43"/>
-      <c r="C75" s="43" t="s">
+    <row r="75" spans="1:8" s="43" customFormat="1">
+      <c r="B75" s="42"/>
+      <c r="C75" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="44" t="s">
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="43" t="s">
         <v>206</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="H75" s="43">
+      <c r="H75" s="42">
         <v>300</v>
       </c>
     </row>
@@ -3758,116 +3778,206 @@
         <v>190</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="44" customFormat="1">
-      <c r="B104" s="43"/>
-      <c r="C104" s="43"/>
-      <c r="D104" s="43"/>
-      <c r="E104" s="43">
-        <v>600</v>
-      </c>
-      <c r="F104" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="G104" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="H104" s="43">
-        <v>600</v>
+    <row r="104" spans="1:8">
+      <c r="B104" s="1">
+        <v>620</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F104" t="s">
+        <v>316</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H104" s="1">
+        <v>620</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="33">
+        <v>41754</v>
+      </c>
+      <c r="B105" s="1">
+        <v>398</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F105" t="s">
+        <v>318</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H105" s="1">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="43" customFormat="1">
+      <c r="B106" s="42"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42">
+        <v>600</v>
+      </c>
+      <c r="F106" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G106" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="H106" s="42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="33">
         <v>41756</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B107" s="1">
         <v>490</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F107" t="s">
         <v>306</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H107" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="33">
+    <row r="108" spans="1:8">
+      <c r="A108" s="33"/>
+      <c r="B108" s="1">
+        <v>270</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F108" t="s">
+        <v>320</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H108" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="33"/>
+      <c r="E109" s="1">
+        <v>112.9</v>
+      </c>
+      <c r="F109" t="s">
+        <v>321</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H109" s="1">
+        <v>112.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="33">
         <v>41757</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B110" s="1">
         <v>48</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E110" s="1">
         <v>300</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F110" t="s">
         <v>308</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H110" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="44" customFormat="1">
-      <c r="A107" s="42"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
-      <c r="E107" s="43"/>
-      <c r="F107" s="44" t="s">
+    <row r="111" spans="1:8" s="43" customFormat="1">
+      <c r="A111" s="41"/>
+      <c r="B111" s="42"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42"/>
+      <c r="F111" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="G107" s="43" t="s">
+      <c r="G111" s="42" t="s">
         <v>303</v>
       </c>
-      <c r="H107" s="43">
+      <c r="H111" s="42">
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="33">
+    <row r="112" spans="1:8" s="47" customFormat="1">
+      <c r="A112" s="45"/>
+      <c r="B112" s="46">
+        <v>120</v>
+      </c>
+      <c r="C112" s="46" t="s">
+        <v>315</v>
+      </c>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="G112" s="46" t="s">
+        <v>317</v>
+      </c>
+      <c r="H112" s="46">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="33">
         <v>41758</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B113" s="1">
         <v>260</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F113" t="s">
         <v>312</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H113" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="22" customFormat="1">
-      <c r="A113" s="22" t="s">
+    <row r="118" spans="1:8" s="22" customFormat="1">
+      <c r="A118" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B113" s="23">
-        <f>SUM(B2:B112)</f>
-        <v>27677.85</v>
-      </c>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="23"/>
-      <c r="H113" s="23">
-        <f>SUM(H2:H108)</f>
-        <v>45340.650000000009</v>
+      <c r="B118" s="23">
+        <f>SUM(B2:B117)</f>
+        <v>29085.85</v>
+      </c>
+      <c r="C118" s="23"/>
+      <c r="D118" s="23"/>
+      <c r="E118" s="23"/>
+      <c r="H118" s="23">
+        <f>SUM(H2:H113)</f>
+        <v>46861.55000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3879,10 +3989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4793,25 +4903,25 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="6">
+      <c r="A35" s="3">
         <v>41743</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="12">
         <v>638.5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="4">
         <v>300</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="5">
         <v>938.5</v>
       </c>
-      <c r="F35" s="19" t="s">
+      <c r="F35" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>219</v>
       </c>
       <c r="H35" s="7" t="s">
@@ -4837,7 +4947,7 @@
       <c r="F36" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="19">
         <v>234.5</v>
       </c>
       <c r="H36" s="16" t="s">
@@ -4949,25 +5059,25 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6">
+      <c r="A41" s="9">
         <v>41749</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="17">
         <v>654</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="10">
         <v>400</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="11">
         <v>1054</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="20">
         <v>265</v>
       </c>
       <c r="H41" s="16" t="s">
@@ -4975,25 +5085,27 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="6">
+      <c r="A42" s="3">
         <v>41750</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="12">
         <v>873.5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="4">
         <v>400</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="5">
         <v>1273.5</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="18">
+        <v>235</v>
+      </c>
       <c r="H42" s="16" t="s">
         <v>15</v>
       </c>
@@ -5005,38 +5117,211 @@
       <c r="B43" s="8" t="s">
         <v>285</v>
       </c>
+      <c r="C43" s="16">
+        <v>634.5</v>
+      </c>
       <c r="D43" s="7" t="s">
         <v>286</v>
       </c>
+      <c r="E43" s="8">
+        <v>834.5</v>
+      </c>
       <c r="F43" s="19" t="s">
         <v>287</v>
+      </c>
+      <c r="G43" s="19">
+        <v>239.5</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="6">
         <v>41752</v>
       </c>
+      <c r="B44" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C44" s="16">
+        <v>545</v>
+      </c>
+      <c r="D44" s="7">
+        <v>300</v>
+      </c>
+      <c r="E44" s="8">
+        <v>845</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="G44" s="19">
+        <v>302.5</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="6"/>
+      <c r="A45" s="6">
+        <v>41753</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" s="16">
+        <v>656.5</v>
+      </c>
+      <c r="D45" s="7">
+        <v>200</v>
+      </c>
+      <c r="E45" s="8">
+        <v>856.5</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G45" s="19">
+        <v>285</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6"/>
+      <c r="A46" s="6">
+        <v>41754</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C46" s="16">
+        <v>683.5</v>
+      </c>
+      <c r="D46" s="7">
+        <v>400</v>
+      </c>
+      <c r="E46" s="8">
+        <v>1083.5</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G46" s="19">
+        <v>236.9</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="6"/>
+      <c r="A47" s="6">
+        <v>41755</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="16">
+        <v>574.5</v>
+      </c>
+      <c r="D47" s="7">
+        <v>300</v>
+      </c>
+      <c r="E47" s="8">
+        <v>574.5</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G47" s="19">
+        <v>241.9</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="6"/>
+      <c r="A48" s="9">
+        <v>41756</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="17">
+        <v>614</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E48" s="11">
+        <v>814</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G48" s="20">
+        <v>238.5</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="6"/>
+      <c r="A49" s="6">
+        <v>41757</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C49" s="16">
+        <v>522</v>
+      </c>
+      <c r="D49" s="7">
+        <v>300</v>
+      </c>
+      <c r="E49" s="8">
+        <v>822</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="G49" s="19">
+        <v>275</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="6"/>
+      <c r="A50" s="6">
+        <v>41758</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C50" s="16">
+        <v>640</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E50" s="8">
+        <v>940</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="G50" s="19">
+        <v>291.5</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="6"/>
+      <c r="A51" s="6">
+        <v>41759</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="6"/>
@@ -5057,8 +5342,8 @@
       <c r="B58" s="25"/>
       <c r="C58" s="24"/>
       <c r="D58" s="26">
-        <f>SUM(D2:D48)</f>
-        <v>9420</v>
+        <f>SUM(D2:D49)</f>
+        <v>10920</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="27"/>
@@ -5096,6 +5381,51 @@
     <row r="64" spans="1:9">
       <c r="F64" s="19" t="s">
         <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" s="6">
+        <v>41753</v>
+      </c>
+      <c r="F65" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" s="6">
+        <v>41754</v>
+      </c>
+      <c r="F66" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" s="6">
+        <v>41755</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" s="6">
+        <v>41756</v>
+      </c>
+      <c r="F68" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="F69" s="19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" s="6">
+        <v>41758</v>
+      </c>
+      <c r="F70" s="19" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="启动资金" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">支出!$A$1:$D$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="338">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -828,9 +828,6 @@
   </si>
   <si>
     <t>给潘锐500现金</t>
-  </si>
-  <si>
-    <t>给潘锐500现金</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1263,9 +1260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一</t>
-  </si>
-  <si>
     <t>南环桥进货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1335,6 +1329,32 @@
   </si>
   <si>
     <t>200+100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜29.藕30,香菜8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲍梦婕</t>
+  </si>
+  <si>
+    <t>资金转移</t>
+  </si>
+  <si>
+    <t>资金转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给俞杰600进货款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉联厂进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小脸牛肉420一箱,火腿30X3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1568,7 +1588,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1701,9 +1721,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1713,12 +1730,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1730,7 +1824,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2043,7 +2137,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2060,7 +2154,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2074,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3241,14 +3335,14 @@
     <row r="73" spans="1:8" s="43" customFormat="1">
       <c r="B73" s="42"/>
       <c r="C73" s="42" t="s">
-        <v>202</v>
+        <v>333</v>
       </c>
       <c r="D73" s="42"/>
       <c r="E73" s="42">
         <v>500</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G73" s="42" t="s">
         <v>1</v>
@@ -3262,13 +3356,13 @@
         <v>41741</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E74" s="1">
         <v>50</v>
       </c>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>1</v>
@@ -3280,12 +3374,12 @@
     <row r="75" spans="1:8" s="43" customFormat="1">
       <c r="B75" s="42"/>
       <c r="C75" s="42" t="s">
-        <v>206</v>
+        <v>333</v>
       </c>
       <c r="D75" s="42"/>
       <c r="E75" s="42"/>
       <c r="F75" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G75" s="42" t="s">
         <v>1</v>
@@ -3299,10 +3393,10 @@
         <v>150</v>
       </c>
       <c r="F76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H76" s="1">
         <v>150</v>
@@ -3313,13 +3407,13 @@
         <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F77" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="F77" s="28" t="s">
+      <c r="G77" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="H77" s="1">
         <v>319</v>
@@ -3327,13 +3421,13 @@
     </row>
     <row r="78" spans="1:8">
       <c r="C78" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E78" s="1">
         <v>116</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>1</v>
@@ -3353,7 +3447,7 @@
         <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>1</v>
@@ -3364,13 +3458,13 @@
     </row>
     <row r="80" spans="1:8">
       <c r="C80" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80" s="1">
         <v>700</v>
       </c>
       <c r="F80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>1</v>
@@ -3384,13 +3478,13 @@
         <v>305</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H81" s="1">
         <v>305</v>
@@ -3404,10 +3498,10 @@
         <v>330</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F82" t="s">
         <v>212</v>
-      </c>
-      <c r="F82" t="s">
-        <v>213</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>1</v>
@@ -3421,10 +3515,10 @@
         <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F83" t="s">
         <v>214</v>
-      </c>
-      <c r="F83" t="s">
-        <v>215</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>1</v>
@@ -3435,13 +3529,13 @@
     </row>
     <row r="84" spans="1:8">
       <c r="C84" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E84" s="1">
         <v>916</v>
       </c>
       <c r="F84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>1</v>
@@ -3458,13 +3552,13 @@
         <v>114</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" t="s">
         <v>244</v>
       </c>
-      <c r="F85" t="s">
-        <v>245</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H85" s="1">
         <v>114</v>
@@ -3481,7 +3575,7 @@
         <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>1</v>
@@ -3492,10 +3586,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="C87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" t="s">
         <v>258</v>
-      </c>
-      <c r="F87" t="s">
-        <v>259</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>1</v>
@@ -3509,10 +3603,10 @@
         <v>650</v>
       </c>
       <c r="F88" t="s">
+        <v>261</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="H88" s="1">
         <v>650</v>
@@ -3523,10 +3617,10 @@
         <v>41746</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F89" t="s">
         <v>260</v>
-      </c>
-      <c r="F89" t="s">
-        <v>261</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>1</v>
@@ -3540,13 +3634,13 @@
         <v>30</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F90" t="s">
         <v>264</v>
       </c>
-      <c r="F90" t="s">
-        <v>265</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H90" s="1">
         <v>30</v>
@@ -3557,7 +3651,7 @@
         <v>455</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>1</v>
@@ -3574,13 +3668,13 @@
         <v>255</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H92" s="1">
         <v>255</v>
@@ -3592,10 +3686,10 @@
         <v>70.8</v>
       </c>
       <c r="F93" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H93" s="1">
         <v>70.8</v>
@@ -3609,10 +3703,10 @@
         <v>410</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F94" t="s">
         <v>268</v>
-      </c>
-      <c r="F94" t="s">
-        <v>269</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>1</v>
@@ -3626,10 +3720,10 @@
         <v>100</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" t="s">
         <v>270</v>
-      </c>
-      <c r="F95" t="s">
-        <v>271</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>1</v>
@@ -3646,10 +3740,10 @@
         <v>352</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F96" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>0</v>
@@ -3663,10 +3757,10 @@
         <v>2093</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H97" s="1">
         <v>2093</v>
@@ -3677,10 +3771,10 @@
         <v>90</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F98" t="s">
         <v>292</v>
-      </c>
-      <c r="F98" t="s">
-        <v>293</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>1</v>
@@ -3692,10 +3786,10 @@
     <row r="99" spans="1:8">
       <c r="A99" s="33"/>
       <c r="C99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F99" t="s">
         <v>294</v>
-      </c>
-      <c r="F99" t="s">
-        <v>295</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>1</v>
@@ -3712,10 +3806,10 @@
         <v>120</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F100" t="s">
         <v>296</v>
-      </c>
-      <c r="F100" t="s">
-        <v>297</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>1</v>
@@ -3729,10 +3823,10 @@
         <v>231</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F101" t="s">
         <v>298</v>
-      </c>
-      <c r="F101" t="s">
-        <v>299</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>1</v>
@@ -3752,7 +3846,7 @@
         <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>1</v>
@@ -3769,7 +3863,7 @@
         <v>78</v>
       </c>
       <c r="F103" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>1</v>
@@ -3783,13 +3877,13 @@
         <v>620</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F104" t="s">
+        <v>314</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F104" t="s">
-        <v>316</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="H104" s="1">
         <v>620</v>
@@ -3803,13 +3897,13 @@
         <v>398</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F105" t="s">
+        <v>316</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="F105" t="s">
-        <v>318</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="H105" s="1">
         <v>398</v>
@@ -3817,16 +3911,18 @@
     </row>
     <row r="106" spans="1:8" s="43" customFormat="1">
       <c r="B106" s="42"/>
-      <c r="C106" s="42"/>
+      <c r="C106" s="42" t="s">
+        <v>333</v>
+      </c>
       <c r="D106" s="42"/>
       <c r="E106" s="42">
         <v>600</v>
       </c>
       <c r="F106" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G106" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H106" s="42">
         <v>600</v>
@@ -3840,10 +3936,10 @@
         <v>490</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F107" t="s">
         <v>305</v>
-      </c>
-      <c r="F107" t="s">
-        <v>306</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>1</v>
@@ -3858,13 +3954,13 @@
         <v>270</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F108" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H108" s="1">
         <v>270</v>
@@ -3876,10 +3972,10 @@
         <v>112.9</v>
       </c>
       <c r="F109" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H109" s="1">
         <v>112.9</v>
@@ -3893,13 +3989,13 @@
         <v>48</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E110" s="1">
         <v>300</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>1</v>
@@ -3915,32 +4011,32 @@
       <c r="D111" s="42"/>
       <c r="E111" s="42"/>
       <c r="F111" s="43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G111" s="42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H111" s="42">
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="47" customFormat="1">
-      <c r="A112" s="45"/>
-      <c r="B112" s="46">
+    <row r="112" spans="1:8" s="46" customFormat="1">
+      <c r="A112" s="44"/>
+      <c r="B112" s="45">
         <v>120</v>
       </c>
-      <c r="C112" s="46" t="s">
+      <c r="C112" s="45" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="45"/>
+      <c r="E112" s="45"/>
+      <c r="F112" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G112" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D112" s="46"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="G112" s="46" t="s">
-        <v>317</v>
-      </c>
-      <c r="H112" s="46">
+      <c r="H112" s="45">
         <v>120</v>
       </c>
     </row>
@@ -3952,30 +4048,92 @@
         <v>260</v>
       </c>
       <c r="C113" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F113" t="s">
+        <v>311</v>
+      </c>
+      <c r="G113" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="F113" t="s">
-        <v>312</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>310</v>
       </c>
       <c r="H113" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="22" customFormat="1">
-      <c r="A118" s="22" t="s">
+    <row r="114" spans="1:8">
+      <c r="A114" s="33">
+        <v>41762</v>
+      </c>
+      <c r="B114" s="1">
+        <v>67</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F114" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H114" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="43" customFormat="1">
+      <c r="A115" s="41">
+        <v>41763</v>
+      </c>
+      <c r="B115" s="42"/>
+      <c r="C115" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42">
+        <v>600</v>
+      </c>
+      <c r="F115" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G115" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H115" s="42">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="33">
+        <v>41764</v>
+      </c>
+      <c r="B116" s="1">
+        <v>510</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F116" t="s">
+        <v>337</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="22" customFormat="1">
+      <c r="A140" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B118" s="23">
-        <f>SUM(B2:B117)</f>
-        <v>29085.85</v>
-      </c>
-      <c r="C118" s="23"/>
-      <c r="D118" s="23"/>
-      <c r="E118" s="23"/>
-      <c r="H118" s="23">
+      <c r="B140" s="23">
+        <f>SUM(B2:B139)</f>
+        <v>29662.85</v>
+      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+      <c r="H140" s="23">
         <f>SUM(H2:H113)</f>
         <v>46861.55000000001</v>
       </c>
@@ -3989,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4001,8 +4159,8 @@
     <col min="2" max="2" width="11" style="8" customWidth="1"/>
     <col min="3" max="3" width="9" style="16"/>
     <col min="4" max="4" width="11.75" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="19" style="19" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="19" customWidth="1"/>
     <col min="7" max="7" width="10.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="9.875" style="7" customWidth="1"/>
     <col min="9" max="9" width="17.875" style="8" customWidth="1"/>
@@ -4828,7 +4986,7 @@
         <v>41740</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="16">
         <v>703.5</v>
@@ -4840,7 +4998,7 @@
         <v>903.5</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G32" s="19">
         <v>263.5</v>
@@ -4854,7 +5012,7 @@
         <v>41741</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C33" s="16">
         <v>569.5</v>
@@ -4866,7 +5024,7 @@
         <v>769.5</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G33" s="19">
         <v>235</v>
@@ -4880,7 +5038,7 @@
         <v>41742</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C34" s="17">
         <v>519</v>
@@ -4892,13 +5050,13 @@
         <v>619</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G34" s="20">
         <v>328.5</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I34" s="11"/>
     </row>
@@ -4907,7 +5065,7 @@
         <v>41743</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C35" s="12">
         <v>638.5</v>
@@ -4919,7 +5077,7 @@
         <v>938.5</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G35" s="18">
         <v>219</v>
@@ -4933,7 +5091,7 @@
         <v>41744</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="16">
         <v>673.3</v>
@@ -4945,13 +5103,13 @@
         <v>823.3</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G36" s="19">
         <v>234.5</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4959,7 +5117,7 @@
         <v>41745</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C37" s="16">
         <v>593</v>
@@ -4971,7 +5129,7 @@
         <v>793</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G37" s="19">
         <v>273</v>
@@ -4997,13 +5155,13 @@
         <v>1088.5</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G38" s="19">
         <v>193.5</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>267</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5011,7 +5169,7 @@
         <v>41747</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C39" s="16">
         <v>894.4</v>
@@ -5023,13 +5181,13 @@
         <v>1094.4000000000001</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G39" s="19">
         <v>240.3</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -5037,7 +5195,7 @@
         <v>41748</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C40" s="16">
         <v>499</v>
@@ -5063,7 +5221,7 @@
         <v>41749</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C41" s="17">
         <v>654</v>
@@ -5089,7 +5247,7 @@
         <v>41750</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" s="12">
         <v>873.5</v>
@@ -5101,7 +5259,7 @@
         <v>1273.5</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G42" s="18">
         <v>235</v>
@@ -5115,19 +5273,19 @@
         <v>41751</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C43" s="16">
         <v>634.5</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E43" s="8">
         <v>834.5</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G43" s="19">
         <v>239.5</v>
@@ -5141,7 +5299,7 @@
         <v>41752</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C44" s="16">
         <v>545</v>
@@ -5153,7 +5311,7 @@
         <v>845</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G44" s="19">
         <v>302.5</v>
@@ -5176,7 +5334,7 @@
         <v>856.5</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G45" s="19">
         <v>285</v>
@@ -5190,7 +5348,7 @@
         <v>41754</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C46" s="16">
         <v>683.5</v>
@@ -5202,7 +5360,7 @@
         <v>1083.5</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G46" s="19">
         <v>236.9</v>
@@ -5216,7 +5374,7 @@
         <v>41755</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="16">
         <v>574.5</v>
@@ -5228,7 +5386,7 @@
         <v>574.5</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G47" s="19">
         <v>241.9</v>
@@ -5242,19 +5400,19 @@
         <v>41756</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C48" s="17">
         <v>614</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E48" s="11">
         <v>814</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G48" s="20">
         <v>238.5</v>
@@ -5263,12 +5421,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:8">
       <c r="A49" s="6">
         <v>41757</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>314</v>
+        <v>135</v>
       </c>
       <c r="C49" s="16">
         <v>522</v>
@@ -5280,7 +5438,7 @@
         <v>822</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G49" s="19">
         <v>275</v>
@@ -5289,24 +5447,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>41758</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C50" s="16">
         <v>640</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E50" s="8">
         <v>940</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G50" s="19">
         <v>291.5</v>
@@ -5315,120 +5473,243 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:8">
       <c r="A51" s="6">
         <v>41759</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="6"/>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="6"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="6"/>
-    </row>
-    <row r="58" spans="1:9" s="22" customFormat="1">
-      <c r="A58" s="24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6">
+        <v>41760</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="48">
+        <v>400</v>
+      </c>
+      <c r="H52" s="49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6">
+        <v>41761</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="48"/>
+      <c r="H53" s="49"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6">
+        <v>41762</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6">
+        <v>41763</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="7">
+        <v>300</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3">
+        <v>41764</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6"/>
+      <c r="B58" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6"/>
+      <c r="B62" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6"/>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="6"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="6"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="6"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="6"/>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="6"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="6"/>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="77" spans="1:9" s="22" customFormat="1">
+      <c r="A77" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="25"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="26">
+      <c r="B77" s="25"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="26">
         <f>SUM(D2:D49)</f>
         <v>10920</v>
       </c>
-      <c r="E58" s="25"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="25"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="6">
+      <c r="E77" s="25"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="25"/>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="6">
         <v>41737</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C80" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="F61" s="8" t="s">
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="6">
+        <v>41751</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="E82" s="6">
+        <v>41751</v>
+      </c>
+      <c r="F82" s="19" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" s="6">
-        <v>41751</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="E63" s="6">
-        <v>41751</v>
-      </c>
-      <c r="F63" s="19" t="s">
+    <row r="83" spans="1:6">
+      <c r="F83" s="19" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
-      <c r="F64" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" s="6">
+    <row r="84" spans="1:6">
+      <c r="E84" s="6">
         <v>41753</v>
       </c>
-      <c r="F65" s="19" t="s">
+      <c r="F84" s="19" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="E85" s="6">
+        <v>41754</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="E86" s="6">
+        <v>41755</v>
+      </c>
+      <c r="F86" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="E87" s="6">
+        <v>41756</v>
+      </c>
+      <c r="F87" s="19" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="5:6">
-      <c r="E66" s="6">
-        <v>41754</v>
-      </c>
-      <c r="F66" s="19" t="s">
+    <row r="88" spans="1:6">
+      <c r="F88" s="19" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="67" spans="5:6">
-      <c r="E67" s="6">
-        <v>41755</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" s="6">
-        <v>41756</v>
-      </c>
-      <c r="F68" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="F69" s="19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" s="6">
+    <row r="89" spans="1:6">
+      <c r="E89" s="6">
         <v>41758</v>
       </c>
-      <c r="F70" s="19" t="s">
-        <v>323</v>
+      <c r="F89" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="H52:H53"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -5486,7 +5767,7 @@
         <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>95</v>
@@ -5529,7 +5810,7 @@
         <v>108</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -5549,21 +5830,21 @@
         <v>1600</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="40">
         <v>1624</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5595,57 +5876,57 @@
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
       <c r="D1" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="48" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="G3" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="H3" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57" customHeight="1">
       <c r="A4" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="C4" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="E4" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G4" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="E4" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>229</v>
-      </c>
       <c r="H4" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1">
@@ -5653,25 +5934,25 @@
         <v>82</v>
       </c>
       <c r="B5" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="36" t="s">
+      <c r="G5" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F5" s="36" t="s">
+      <c r="H5" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H5" s="39" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="52.5" customHeight="1">
@@ -5679,51 +5960,51 @@
         <v>104</v>
       </c>
       <c r="B6" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>229</v>
-      </c>
       <c r="H6" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="53.25" customHeight="1">
       <c r="A7" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="39" t="s">
         <v>228</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="62.25" customHeight="1">
@@ -5731,107 +6012,107 @@
         <v>109</v>
       </c>
       <c r="B8" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="G8" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H8" s="36" t="s">
         <v>227</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.25" customHeight="1"/>
     <row r="11" spans="1:8">
       <c r="A11" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="G11" s="34" t="s">
         <v>233</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="F12" s="34" t="s">
         <v>236</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="49.5" customHeight="1">
       <c r="D14" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1"/>
     <row r="16" spans="1:8" ht="45" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="G16" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="H16" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="64.5" customHeight="1">
       <c r="A17" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="C17" s="36" t="s">
         <v>226</v>
       </c>
-      <c r="C17" s="36" t="s">
+      <c r="D17" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="D17" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="F17" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G17" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>229</v>
-      </c>
       <c r="H17" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="51" customHeight="1">
@@ -5839,25 +6120,25 @@
         <v>82</v>
       </c>
       <c r="B18" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G18" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>227</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="59.25" customHeight="1">
@@ -5865,25 +6146,25 @@
         <v>104</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="51.75" customHeight="1">
@@ -5891,47 +6172,47 @@
         <v>105</v>
       </c>
       <c r="B20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>227</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>229</v>
-      </c>
       <c r="G20" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>232</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="G23" s="34" t="s">
         <v>233</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="F24" s="34" t="s">
         <v>236</v>
-      </c>
-      <c r="F24" s="34" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/食堂窗口收支明细表.xlsx
+++ b/食堂窗口收支明细表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="347">
   <si>
     <t>潘锐</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,6 +1355,42 @@
   </si>
   <si>
     <t>小脸牛肉420一箱,火腿30X3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进货款给俞杰1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高麦进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炸鸡腌料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南环桥进货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>油155,鸡蛋130X3,生菜15,葱6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俞杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.9日开始请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.10最后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肚117,猪肉135,黄瓜15,大中小男孩纸袋+抽纸70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1624,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1729,6 +1765,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2137,7 +2176,7 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2154,7 +2193,7 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2170,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4122,13 +4161,86 @@
         <v>510</v>
       </c>
     </row>
+    <row r="117" spans="1:8" s="43" customFormat="1">
+      <c r="A117" s="41">
+        <v>41765</v>
+      </c>
+      <c r="B117" s="42"/>
+      <c r="C117" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42">
+        <v>1000</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G117" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H117" s="42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="33">
+        <v>41766</v>
+      </c>
+      <c r="B118" s="1">
+        <v>300</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F118" t="s">
+        <v>340</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="C119" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F119" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H119" s="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="33">
+        <v>41769</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F120" t="s">
+        <v>346</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H120" s="1">
+        <v>337</v>
+      </c>
+    </row>
     <row r="140" spans="1:8" s="22" customFormat="1">
       <c r="A140" s="22" t="s">
         <v>148</v>
       </c>
       <c r="B140" s="23">
         <f>SUM(B2:B139)</f>
-        <v>29662.85</v>
+        <v>29962.85</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
@@ -4149,8 +4261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5488,10 +5600,10 @@
       <c r="B52" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D52" s="48">
+      <c r="D52" s="49">
         <v>400</v>
       </c>
-      <c r="H52" s="49" t="s">
+      <c r="H52" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -5502,8 +5614,8 @@
       <c r="B53" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="H53" s="49"/>
+      <c r="D53" s="49"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="6">
@@ -5541,43 +5653,69 @@
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="6"/>
+      <c r="A57" s="3">
+        <v>41765</v>
+      </c>
       <c r="B57" s="8" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="6"/>
+      <c r="A58" s="3">
+        <v>41766</v>
+      </c>
       <c r="B58" s="8" t="s">
         <v>250</v>
       </c>
+      <c r="D58" s="7">
+        <v>300</v>
+      </c>
+      <c r="H58" s="47" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="6"/>
+      <c r="A59" s="3">
+        <v>41767</v>
+      </c>
       <c r="B59" s="8" t="s">
         <v>200</v>
       </c>
+      <c r="D59" s="7">
+        <v>500</v>
+      </c>
+      <c r="H59" s="47" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="6"/>
+      <c r="A60" s="3">
+        <v>41768</v>
+      </c>
       <c r="B60" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="6"/>
+      <c r="A61" s="3">
+        <v>41769</v>
+      </c>
       <c r="B61" s="8" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="6"/>
+      <c r="A62" s="3">
+        <v>41770</v>
+      </c>
       <c r="B62" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="6"/>
+      <c r="A63" s="3">
+        <v>41771</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6"/>
@@ -5721,7 +5859,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5845,6 +5983,12 @@
     <row r="9" spans="1:12">
       <c r="B9" s="1" t="s">
         <v>301</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
